--- a/docs/penghitunganmanual.xlsx
+++ b/docs/penghitunganmanual.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Skripsi\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chatbot\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E116D7-1734-4BE6-8835-FC7B16B4A633}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="TF-IDF pertanyaan" sheetId="2" r:id="rId2"/>
     <sheet name="TF-IDF jawaban" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="218">
   <si>
     <t>Bot</t>
   </si>
@@ -684,135 +683,56 @@
     <t>libur</t>
   </si>
   <si>
-    <t>cetak</t>
-  </si>
-  <si>
-    <t>0.176091</t>
-  </si>
-  <si>
-    <t>0.778151</t>
-  </si>
-  <si>
-    <t>banner</t>
-  </si>
-  <si>
-    <t>0.477121</t>
-  </si>
-  <si>
-    <t>korea</t>
-  </si>
-  <si>
-    <t>0.079181</t>
-  </si>
-  <si>
-    <t>art</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>pigura</t>
-  </si>
-  <si>
-    <t>a4</t>
-  </si>
-  <si>
-    <t>kali</t>
-  </si>
-  <si>
-    <t>brosur</t>
-  </si>
-  <si>
-    <t>dapat</t>
-  </si>
-  <si>
-    <t>lembar</t>
-  </si>
-  <si>
-    <t>0.031008</t>
-  </si>
-  <si>
-    <t>0.227644</t>
-  </si>
-  <si>
-    <t>0.006269</t>
-  </si>
-  <si>
-    <t>0.492565</t>
-  </si>
-  <si>
-    <t>0.037277</t>
-  </si>
-  <si>
-    <t>0.605518</t>
-  </si>
-  <si>
-    <t>0.70183</t>
-  </si>
-  <si>
-    <t>acuan</t>
-  </si>
-  <si>
-    <t>belum</t>
-  </si>
-  <si>
-    <t>bisa</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>dijadikan</t>
-  </si>
-  <si>
-    <t>fakta</t>
-  </si>
-  <si>
-    <t>informasi</t>
-  </si>
-  <si>
-    <t>keputusan</t>
-  </si>
-  <si>
-    <t>keterangan</t>
-  </si>
-  <si>
-    <t>mengambil</t>
-  </si>
-  <si>
-    <t>pengambilan</t>
-  </si>
-  <si>
-    <t>sekumpulan</t>
-  </si>
-  <si>
-    <t>suatu</t>
-  </si>
-  <si>
-    <t>mentah</t>
-  </si>
-  <si>
-    <t>menyajikan</t>
-  </si>
-  <si>
-    <t>diolah</t>
-  </si>
-  <si>
     <t>Main Frame 1,7</t>
   </si>
   <si>
     <t>Main Frame 1,9</t>
+  </si>
+  <si>
+    <t>dokumen 1</t>
+  </si>
+  <si>
+    <t>dokumen 2</t>
+  </si>
+  <si>
+    <t>dokumen 3</t>
+  </si>
+  <si>
+    <t>dokumen 4</t>
+  </si>
+  <si>
+    <t>dokumen 5</t>
+  </si>
+  <si>
+    <t>Cat Walk = 40000</t>
+  </si>
+  <si>
+    <t>Roda = 80000</t>
+  </si>
+  <si>
+    <t>Tangga = 50000</t>
+  </si>
+  <si>
+    <t>Pipa Support = 40000</t>
+  </si>
+  <si>
+    <t>1 set Main Frame 1,7 = 50000</t>
+  </si>
+  <si>
+    <t>1 set Main Frame 1,9 = 55000</t>
+  </si>
+  <si>
+    <t>Leader 0,9 - jp = 36000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -846,22 +766,8 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -880,8 +786,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="40">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1078,150 +990,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color auto="1"/>
       </left>
@@ -1359,59 +1127,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1523,49 +1245,22 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1577,29 +1272,17 @@
     <xf numFmtId="1" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1616,16 +1299,16 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1634,155 +1317,26 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1808,45 +1362,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2119,11 +1657,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -2149,19 +1687,19 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="124" t="s">
+      <c r="F1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="124" t="s">
+      <c r="G1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124" t="s">
+      <c r="H1" s="68"/>
+      <c r="I1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="16">
@@ -2171,9 +1709,9 @@
         <v>5</v>
       </c>
       <c r="C2" s="18"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
       <c r="I2" t="s">
         <v>6</v>
       </c>
@@ -2322,7 +1860,7 @@
         <v>24</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>23</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -2360,7 +1898,7 @@
         <v>29</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>26</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2400,7 +1938,7 @@
         <v>33</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>31</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2440,7 +1978,7 @@
         <v>37</v>
       </c>
       <c r="P8" s="15" t="s">
-        <v>35</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2480,7 +2018,7 @@
         <v>42</v>
       </c>
       <c r="P9" s="15" t="s">
-        <v>39</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2492,7 +2030,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16" t="s">
@@ -2640,7 +2178,7 @@
         <v>59</v>
       </c>
       <c r="P13" s="15" t="s">
-        <v>57</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2655,7 +2193,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16" t="s">
@@ -2793,14 +2331,14 @@
         <f>SUM(M18:M19)</f>
         <v>8.8000000000000007</v>
       </c>
-      <c r="N17" s="15" t="s">
+      <c r="N17" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="O17" s="15" t="s">
+      <c r="O17" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="P17" s="15" t="s">
-        <v>64</v>
+      <c r="P17" s="82" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="2:16">
@@ -2833,13 +2371,13 @@
       <c r="M18">
         <v>6</v>
       </c>
-      <c r="N18" s="15" t="s">
+      <c r="N18" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="O18" s="15" t="s">
+      <c r="O18" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="P18" s="15" t="s">
+      <c r="P18" s="82" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2873,13 +2411,13 @@
       <c r="M19">
         <v>2.8</v>
       </c>
-      <c r="N19" s="15" t="s">
+      <c r="N19" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="O19" s="15" t="s">
+      <c r="O19" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="P19" s="15" t="s">
+      <c r="P19" s="82" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2913,13 +2451,13 @@
         <f>SUM(M21:M23)</f>
         <v>9.08</v>
       </c>
-      <c r="N20" s="15" t="s">
+      <c r="N20" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="O20" s="15" t="s">
+      <c r="O20" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="P20" s="15" t="s">
+      <c r="P20" s="82" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2950,13 +2488,13 @@
       <c r="M21">
         <v>6</v>
       </c>
-      <c r="N21" s="15" t="s">
+      <c r="N21" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="O21" s="15" t="s">
+      <c r="O21" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="P21" s="15" t="s">
+      <c r="P21" s="82" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2987,13 +2525,13 @@
       <c r="M22">
         <v>2.8</v>
       </c>
-      <c r="N22" s="15" t="s">
+      <c r="N22" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="O22" s="15" t="s">
+      <c r="O22" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="P22" s="15" t="s">
+      <c r="P22" s="82" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3024,13 +2562,13 @@
       <c r="M23">
         <v>0.28000000000000003</v>
       </c>
-      <c r="N23" s="15" t="s">
+      <c r="N23" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="O23" s="15" t="s">
+      <c r="O23" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="P23" s="15" t="s">
+      <c r="P23" s="82" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3843,7 +3381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR41"/>
   <sheetViews>
     <sheetView topLeftCell="T6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -3934,44 +3472,44 @@
       </c>
     </row>
     <row r="11" spans="1:44">
-      <c r="N11" s="125" t="s">
+      <c r="N11" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="O11" s="126"/>
-      <c r="P11" s="126"/>
-      <c r="Q11" s="126"/>
-      <c r="R11" s="126"/>
-      <c r="S11" s="126"/>
-      <c r="T11" s="126"/>
-      <c r="U11" s="127"/>
-      <c r="V11" s="128" t="s">
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="71"/>
+      <c r="V11" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="W11" s="128"/>
-      <c r="X11" s="128"/>
-      <c r="Y11" s="128"/>
-      <c r="Z11" s="128"/>
-      <c r="AA11" s="128"/>
-      <c r="AB11" s="128"/>
+      <c r="W11" s="72"/>
+      <c r="X11" s="72"/>
+      <c r="Y11" s="72"/>
+      <c r="Z11" s="72"/>
+      <c r="AA11" s="72"/>
+      <c r="AB11" s="72"/>
       <c r="AC11" s="6"/>
-      <c r="AD11" s="128" t="s">
+      <c r="AD11" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="AE11" s="128"/>
-      <c r="AF11" s="128"/>
-      <c r="AG11" s="128"/>
-      <c r="AH11" s="128"/>
-      <c r="AI11" s="128"/>
+      <c r="AE11" s="72"/>
+      <c r="AF11" s="72"/>
+      <c r="AG11" s="72"/>
+      <c r="AH11" s="72"/>
+      <c r="AI11" s="72"/>
       <c r="AJ11" s="4"/>
-      <c r="AK11" s="129" t="s">
+      <c r="AK11" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="AL11" s="130"/>
-      <c r="AM11" s="130"/>
-      <c r="AN11" s="130"/>
-      <c r="AO11" s="130"/>
-      <c r="AP11" s="130"/>
-      <c r="AQ11" s="131"/>
+      <c r="AL11" s="74"/>
+      <c r="AM11" s="74"/>
+      <c r="AN11" s="74"/>
+      <c r="AO11" s="74"/>
+      <c r="AP11" s="74"/>
+      <c r="AQ11" s="75"/>
     </row>
     <row r="12" spans="1:44">
       <c r="A12" s="2" t="s">
@@ -8399,17 +7937,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{775D5E10-81CE-4D30-B0FA-D6247DE99302}">
-  <dimension ref="A1:AA61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA43"/>
   <sheetViews>
-    <sheetView topLeftCell="M8" workbookViewId="0">
-      <selection activeCell="AA26" sqref="AA26"/>
+    <sheetView topLeftCell="M9" workbookViewId="0">
+      <selection activeCell="AA27" sqref="AA27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="17.81640625" style="35" customWidth="1"/>
-    <col min="2" max="6" width="3.453125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="29.08984375" style="35" customWidth="1"/>
+    <col min="3" max="6" width="3.453125" style="35" customWidth="1"/>
     <col min="7" max="7" width="3.453125" style="35" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.453125" style="35" customWidth="1"/>
     <col min="9" max="9" width="5.36328125" style="35" hidden="1" customWidth="1"/>
@@ -8430,7 +7969,7 @@
       <c r="A1" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="50" t="s">
         <v>190</v>
       </c>
     </row>
@@ -8438,7 +7977,7 @@
       <c r="A2" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="51" t="s">
         <v>191</v>
       </c>
     </row>
@@ -8446,7 +7985,7 @@
       <c r="A3" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="51" t="s">
         <v>192</v>
       </c>
     </row>
@@ -8454,7 +7993,7 @@
       <c r="A4" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="51" t="s">
         <v>193</v>
       </c>
     </row>
@@ -8462,7 +8001,7 @@
       <c r="A5" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="51" t="s">
         <v>194</v>
       </c>
     </row>
@@ -8470,7 +8009,7 @@
       <c r="A6" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="51" t="s">
         <v>195</v>
       </c>
     </row>
@@ -8484,29 +8023,29 @@
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" thickBot="1"/>
     <row r="10" spans="1:27" ht="15" customHeight="1" thickTop="1">
-      <c r="K10" s="132" t="s">
+      <c r="K10" s="76" t="s">
         <v>144</v>
       </c>
-      <c r="L10" s="133"/>
-      <c r="M10" s="133"/>
-      <c r="N10" s="133"/>
-      <c r="O10" s="133"/>
-      <c r="P10" s="134"/>
-      <c r="Q10" s="132" t="s">
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="R10" s="133"/>
-      <c r="S10" s="133"/>
-      <c r="T10" s="133"/>
-      <c r="U10" s="134"/>
-      <c r="V10" s="135" t="s">
+      <c r="R10" s="77"/>
+      <c r="S10" s="77"/>
+      <c r="T10" s="77"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="79" t="s">
         <v>147</v>
       </c>
-      <c r="W10" s="136"/>
-      <c r="X10" s="136"/>
-      <c r="Y10" s="136"/>
-      <c r="Z10" s="136"/>
-      <c r="AA10" s="137"/>
+      <c r="W10" s="80"/>
+      <c r="X10" s="80"/>
+      <c r="Y10" s="80"/>
+      <c r="Z10" s="80"/>
+      <c r="AA10" s="81"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1">
       <c r="A11" s="34" t="s">
@@ -8536,10 +8075,10 @@
       <c r="I11" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="J11" s="45" t="s">
+      <c r="J11" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="K11" s="47" t="s">
+      <c r="K11" s="39" t="s">
         <v>149</v>
       </c>
       <c r="L11" s="34" t="s">
@@ -8554,10 +8093,10 @@
       <c r="O11" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="P11" s="45" t="s">
+      <c r="P11" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="Q11" s="47" t="s">
+      <c r="Q11" s="39" t="s">
         <v>150</v>
       </c>
       <c r="R11" s="34" t="s">
@@ -8569,10 +8108,10 @@
       <c r="T11" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="U11" s="48" t="s">
+      <c r="U11" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="V11" s="47" t="s">
+      <c r="V11" s="39" t="s">
         <v>149</v>
       </c>
       <c r="W11" s="34" t="s">
@@ -8587,7 +8126,7 @@
       <c r="Z11" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="AA11" s="48" t="s">
+      <c r="AA11" s="40" t="s">
         <v>154</v>
       </c>
     </row>
@@ -8618,11 +8157,11 @@
         <v>4</v>
       </c>
       <c r="I12" s="34"/>
-      <c r="J12" s="67">
+      <c r="J12" s="54">
         <f>LOG($B$8/H12)</f>
         <v>0.17609125905568124</v>
       </c>
-      <c r="K12" s="68">
+      <c r="K12" s="55">
         <f t="shared" ref="K12:K23" si="1">B12*J12</f>
         <v>0.17609125905568124</v>
       </c>
@@ -8630,163 +8169,163 @@
         <f t="shared" ref="L12:L23" si="2">C12*J12</f>
         <v>0</v>
       </c>
-      <c r="M12" s="69">
+      <c r="M12" s="56">
         <f t="shared" ref="M12:M23" si="3">D12*J12</f>
         <v>0.17609125905568124</v>
       </c>
-      <c r="N12" s="69">
+      <c r="N12" s="56">
         <f t="shared" ref="N12:N23" si="4">E12*J12</f>
         <v>0.17609125905568124</v>
       </c>
-      <c r="O12" s="69">
+      <c r="O12" s="56">
         <f t="shared" ref="O12:O23" si="5">F12*J12</f>
         <v>0.17609125905568124</v>
       </c>
-      <c r="P12" s="46">
+      <c r="P12" s="38">
         <f t="shared" ref="P12:P23" si="6">G12*J12</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="50">
+      <c r="Q12" s="42">
         <f>L12*K12</f>
         <v>0</v>
       </c>
-      <c r="R12" s="69">
+      <c r="R12" s="56">
         <f>M12*K12</f>
         <v>3.1008131515815038E-2</v>
       </c>
-      <c r="S12" s="69">
+      <c r="S12" s="56">
         <f>N12*K12</f>
         <v>3.1008131515815038E-2</v>
       </c>
-      <c r="T12" s="69">
+      <c r="T12" s="56">
         <f>O12*K12</f>
         <v>3.1008131515815038E-2</v>
       </c>
-      <c r="U12" s="49">
+      <c r="U12" s="41">
         <f>P12*K12</f>
         <v>0</v>
       </c>
-      <c r="V12" s="68">
+      <c r="V12" s="55">
         <f t="shared" ref="V12:AA12" si="7">K12^2</f>
         <v>3.1008131515815038E-2</v>
       </c>
-      <c r="W12" s="69">
+      <c r="W12" s="56">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X12" s="69">
+      <c r="X12" s="56">
         <f t="shared" si="7"/>
         <v>3.1008131515815038E-2</v>
       </c>
-      <c r="Y12" s="69">
+      <c r="Y12" s="56">
         <f t="shared" si="7"/>
         <v>3.1008131515815038E-2</v>
       </c>
-      <c r="Z12" s="69">
+      <c r="Z12" s="56">
         <f t="shared" si="7"/>
         <v>3.1008131515815038E-2</v>
       </c>
-      <c r="AA12" s="70">
+      <c r="AA12" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="52" t="s">
+    <row r="13" spans="1:27" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="B13" s="52">
-        <v>1</v>
-      </c>
-      <c r="C13" s="52">
-        <v>1</v>
-      </c>
-      <c r="D13" s="52">
-        <v>1</v>
-      </c>
-      <c r="E13" s="52">
-        <v>1</v>
-      </c>
-      <c r="F13" s="52">
-        <v>1</v>
-      </c>
-      <c r="G13" s="52">
-        <v>0</v>
-      </c>
-      <c r="H13" s="52">
+      <c r="B13" s="43">
+        <v>1</v>
+      </c>
+      <c r="C13" s="43">
+        <v>1</v>
+      </c>
+      <c r="D13" s="43">
+        <v>1</v>
+      </c>
+      <c r="E13" s="43">
+        <v>1</v>
+      </c>
+      <c r="F13" s="43">
+        <v>1</v>
+      </c>
+      <c r="G13" s="43">
+        <v>0</v>
+      </c>
+      <c r="H13" s="43">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I13" s="52"/>
-      <c r="J13" s="67">
+      <c r="I13" s="43"/>
+      <c r="J13" s="54">
         <f t="shared" ref="J13:J23" si="8">LOG($B$8/H13)</f>
         <v>7.9181246047624818E-2</v>
       </c>
-      <c r="K13" s="71">
+      <c r="K13" s="58">
         <f t="shared" si="1"/>
         <v>7.9181246047624818E-2</v>
       </c>
-      <c r="L13" s="72">
+      <c r="L13" s="59">
         <f t="shared" si="2"/>
         <v>7.9181246047624818E-2</v>
       </c>
-      <c r="M13" s="72">
+      <c r="M13" s="59">
         <f t="shared" si="3"/>
         <v>7.9181246047624818E-2</v>
       </c>
-      <c r="N13" s="72">
+      <c r="N13" s="59">
         <f t="shared" si="4"/>
         <v>7.9181246047624818E-2</v>
       </c>
-      <c r="O13" s="72">
+      <c r="O13" s="59">
         <f t="shared" si="5"/>
         <v>7.9181246047624818E-2</v>
       </c>
-      <c r="P13" s="54">
+      <c r="P13" s="45">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="68">
+      <c r="Q13" s="55">
         <f t="shared" ref="Q13:Q23" si="9">L13*K13</f>
         <v>6.2696697256545012E-3</v>
       </c>
-      <c r="R13" s="69">
+      <c r="R13" s="56">
         <f t="shared" ref="R13:R23" si="10">M13*K13</f>
         <v>6.2696697256545012E-3</v>
       </c>
-      <c r="S13" s="69">
+      <c r="S13" s="56">
         <f t="shared" ref="S13:S23" si="11">N13*K13</f>
         <v>6.2696697256545012E-3</v>
       </c>
-      <c r="T13" s="69">
+      <c r="T13" s="56">
         <f t="shared" ref="T13:T23" si="12">O13*K13</f>
         <v>6.2696697256545012E-3</v>
       </c>
-      <c r="U13" s="49">
+      <c r="U13" s="41">
         <f t="shared" ref="U13:U23" si="13">P13*K13</f>
         <v>0</v>
       </c>
-      <c r="V13" s="68">
+      <c r="V13" s="55">
         <f t="shared" ref="V13:V23" si="14">K13^2</f>
         <v>6.2696697256545012E-3</v>
       </c>
-      <c r="W13" s="69">
+      <c r="W13" s="56">
         <f t="shared" ref="W13:W23" si="15">L13^2</f>
         <v>6.2696697256545012E-3</v>
       </c>
-      <c r="X13" s="69">
+      <c r="X13" s="56">
         <f t="shared" ref="X13:X23" si="16">M13^2</f>
         <v>6.2696697256545012E-3</v>
       </c>
-      <c r="Y13" s="69">
+      <c r="Y13" s="56">
         <f t="shared" ref="Y13:Y23" si="17">N13^2</f>
         <v>6.2696697256545012E-3</v>
       </c>
-      <c r="Z13" s="69">
+      <c r="Z13" s="56">
         <f t="shared" ref="Z13:Z23" si="18">O13^2</f>
         <v>6.2696697256545012E-3</v>
       </c>
-      <c r="AA13" s="70">
+      <c r="AA13" s="57">
         <f t="shared" ref="AA13:AA23" si="19">P13^2</f>
         <v>0</v>
       </c>
@@ -8818,11 +8357,11 @@
         <v>1</v>
       </c>
       <c r="I14" s="34"/>
-      <c r="J14" s="67">
+      <c r="J14" s="54">
         <f t="shared" si="8"/>
         <v>0.77815125038364363</v>
       </c>
-      <c r="K14" s="68">
+      <c r="K14" s="55">
         <f t="shared" si="1"/>
         <v>0.77815125038364363</v>
       </c>
@@ -8842,11 +8381,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P14" s="46">
+      <c r="P14" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="50">
+      <c r="Q14" s="42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -8862,91 +8401,91 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U14" s="49">
+      <c r="U14" s="41">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="V14" s="68">
+      <c r="V14" s="55">
         <f t="shared" si="14"/>
         <v>0.60551936847362808</v>
       </c>
-      <c r="W14" s="69">
+      <c r="W14" s="56">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="X14" s="69">
+      <c r="X14" s="56">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Y14" s="69">
+      <c r="Y14" s="56">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="69">
+      <c r="Z14" s="56">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AA14" s="70">
+      <c r="AA14" s="57">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="52" t="s">
+    <row r="15" spans="1:27" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="B15" s="52">
-        <v>0</v>
-      </c>
-      <c r="C15" s="52">
-        <v>1</v>
-      </c>
-      <c r="D15" s="52">
-        <v>0</v>
-      </c>
-      <c r="E15" s="52">
-        <v>0</v>
-      </c>
-      <c r="F15" s="52">
-        <v>0</v>
-      </c>
-      <c r="G15" s="52">
-        <v>0</v>
-      </c>
-      <c r="H15" s="52">
+      <c r="B15" s="43">
+        <v>0</v>
+      </c>
+      <c r="C15" s="43">
+        <v>1</v>
+      </c>
+      <c r="D15" s="43">
+        <v>0</v>
+      </c>
+      <c r="E15" s="43">
+        <v>0</v>
+      </c>
+      <c r="F15" s="43">
+        <v>0</v>
+      </c>
+      <c r="G15" s="43">
+        <v>0</v>
+      </c>
+      <c r="H15" s="43">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I15" s="52"/>
-      <c r="J15" s="67">
+      <c r="I15" s="43"/>
+      <c r="J15" s="54">
         <f t="shared" si="8"/>
         <v>0.77815125038364363</v>
       </c>
-      <c r="K15" s="55">
+      <c r="K15" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L15" s="72">
+      <c r="L15" s="59">
         <f t="shared" si="2"/>
         <v>0.77815125038364363</v>
       </c>
-      <c r="M15" s="53">
+      <c r="M15" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N15" s="53">
+      <c r="N15" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O15" s="53">
+      <c r="O15" s="44">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P15" s="54">
+      <c r="P15" s="45">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="50">
+      <c r="Q15" s="42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -8962,31 +8501,31 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U15" s="49">
+      <c r="U15" s="41">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="V15" s="68">
+      <c r="V15" s="55">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="W15" s="69">
+      <c r="W15" s="56">
         <f>L15^2</f>
         <v>0.60551936847362808</v>
       </c>
-      <c r="X15" s="69">
+      <c r="X15" s="56">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Y15" s="69">
+      <c r="Y15" s="56">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Z15" s="69">
+      <c r="Z15" s="56">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AA15" s="70">
+      <c r="AA15" s="57">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -9018,15 +8557,15 @@
         <v>1</v>
       </c>
       <c r="I16" s="34"/>
-      <c r="J16" s="67">
+      <c r="J16" s="54">
         <f t="shared" si="8"/>
         <v>0.77815125038364363</v>
       </c>
-      <c r="K16" s="50">
+      <c r="K16" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L16" s="69">
+      <c r="L16" s="56">
         <f t="shared" si="2"/>
         <v>0.77815125038364363</v>
       </c>
@@ -9042,11 +8581,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P16" s="46">
+      <c r="P16" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="50">
+      <c r="Q16" s="42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -9062,91 +8601,91 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U16" s="49">
+      <c r="U16" s="41">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="V16" s="68">
+      <c r="V16" s="55">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="W16" s="69">
+      <c r="W16" s="56">
         <f t="shared" si="15"/>
         <v>0.60551936847362808</v>
       </c>
-      <c r="X16" s="69">
+      <c r="X16" s="56">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="69">
+      <c r="Y16" s="56">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Z16" s="69">
+      <c r="Z16" s="56">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AA16" s="70">
+      <c r="AA16" s="57">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A17" s="52" t="s">
+    <row r="17" spans="1:27" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="A17" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="B17" s="52">
-        <v>0</v>
-      </c>
-      <c r="C17" s="52">
-        <v>1</v>
-      </c>
-      <c r="D17" s="52">
-        <v>0</v>
-      </c>
-      <c r="E17" s="52">
-        <v>0</v>
-      </c>
-      <c r="F17" s="52">
-        <v>0</v>
-      </c>
-      <c r="G17" s="52">
-        <v>0</v>
-      </c>
-      <c r="H17" s="52">
+      <c r="B17" s="43">
+        <v>0</v>
+      </c>
+      <c r="C17" s="43">
+        <v>1</v>
+      </c>
+      <c r="D17" s="43">
+        <v>0</v>
+      </c>
+      <c r="E17" s="43">
+        <v>0</v>
+      </c>
+      <c r="F17" s="43">
+        <v>0</v>
+      </c>
+      <c r="G17" s="43">
+        <v>0</v>
+      </c>
+      <c r="H17" s="43">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I17" s="52"/>
-      <c r="J17" s="67">
+      <c r="I17" s="43"/>
+      <c r="J17" s="54">
         <f t="shared" si="8"/>
         <v>0.77815125038364363</v>
       </c>
-      <c r="K17" s="55">
+      <c r="K17" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L17" s="72">
+      <c r="L17" s="59">
         <f t="shared" si="2"/>
         <v>0.77815125038364363</v>
       </c>
-      <c r="M17" s="53">
+      <c r="M17" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N17" s="53">
+      <c r="N17" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O17" s="53">
+      <c r="O17" s="44">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P17" s="54">
+      <c r="P17" s="45">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="50">
+      <c r="Q17" s="42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -9162,31 +8701,31 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U17" s="49">
+      <c r="U17" s="41">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="V17" s="68">
+      <c r="V17" s="55">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="W17" s="69">
+      <c r="W17" s="56">
         <f t="shared" si="15"/>
         <v>0.60551936847362808</v>
       </c>
-      <c r="X17" s="69">
+      <c r="X17" s="56">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Y17" s="69">
+      <c r="Y17" s="56">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Z17" s="69">
+      <c r="Z17" s="56">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AA17" s="70">
+      <c r="AA17" s="57">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -9218,11 +8757,11 @@
         <v>3</v>
       </c>
       <c r="I18" s="34"/>
-      <c r="J18" s="67">
+      <c r="J18" s="54">
         <f t="shared" si="8"/>
         <v>0.3010299956639812</v>
       </c>
-      <c r="K18" s="50">
+      <c r="K18" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9230,23 +8769,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M18" s="69">
+      <c r="M18" s="56">
         <f t="shared" si="3"/>
         <v>0.3010299956639812</v>
       </c>
-      <c r="N18" s="69">
+      <c r="N18" s="56">
         <f t="shared" si="4"/>
         <v>0.3010299956639812</v>
       </c>
-      <c r="O18" s="69">
+      <c r="O18" s="56">
         <f t="shared" si="5"/>
         <v>0.3010299956639812</v>
       </c>
-      <c r="P18" s="46">
+      <c r="P18" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="50">
+      <c r="Q18" s="42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -9262,91 +8801,91 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U18" s="49">
+      <c r="U18" s="41">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="V18" s="68">
+      <c r="V18" s="55">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="W18" s="69">
+      <c r="W18" s="56">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="X18" s="69">
+      <c r="X18" s="56">
         <f t="shared" si="16"/>
         <v>9.0619058289456544E-2</v>
       </c>
-      <c r="Y18" s="69">
+      <c r="Y18" s="56">
         <f t="shared" si="17"/>
         <v>9.0619058289456544E-2</v>
       </c>
-      <c r="Z18" s="69">
+      <c r="Z18" s="56">
         <f t="shared" si="18"/>
         <v>9.0619058289456544E-2</v>
       </c>
-      <c r="AA18" s="70">
+      <c r="AA18" s="57">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:27" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A19" s="52" t="s">
+    <row r="19" spans="1:27" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="A19" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="B19" s="52">
-        <v>0</v>
-      </c>
-      <c r="C19" s="52">
-        <v>0</v>
-      </c>
-      <c r="D19" s="52">
-        <v>1</v>
-      </c>
-      <c r="E19" s="52">
-        <v>0</v>
-      </c>
-      <c r="F19" s="52">
-        <v>0</v>
-      </c>
-      <c r="G19" s="52">
-        <v>0</v>
-      </c>
-      <c r="H19" s="52">
+      <c r="B19" s="43">
+        <v>0</v>
+      </c>
+      <c r="C19" s="43">
+        <v>0</v>
+      </c>
+      <c r="D19" s="43">
+        <v>1</v>
+      </c>
+      <c r="E19" s="43">
+        <v>0</v>
+      </c>
+      <c r="F19" s="43">
+        <v>0</v>
+      </c>
+      <c r="G19" s="43">
+        <v>0</v>
+      </c>
+      <c r="H19" s="43">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I19" s="52"/>
-      <c r="J19" s="67">
+      <c r="I19" s="43"/>
+      <c r="J19" s="54">
         <f t="shared" si="8"/>
         <v>0.77815125038364363</v>
       </c>
-      <c r="K19" s="55">
+      <c r="K19" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L19" s="53">
+      <c r="L19" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M19" s="72">
+      <c r="M19" s="59">
         <f t="shared" si="3"/>
         <v>0.77815125038364363</v>
       </c>
-      <c r="N19" s="53">
+      <c r="N19" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O19" s="53">
+      <c r="O19" s="44">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P19" s="54">
+      <c r="P19" s="45">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="50">
+      <c r="Q19" s="42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -9362,31 +8901,31 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U19" s="49">
+      <c r="U19" s="41">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="V19" s="68">
+      <c r="V19" s="55">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="W19" s="69">
+      <c r="W19" s="56">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="X19" s="69">
+      <c r="X19" s="56">
         <f t="shared" si="16"/>
         <v>0.60551936847362808</v>
       </c>
-      <c r="Y19" s="69">
+      <c r="Y19" s="56">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Z19" s="69">
+      <c r="Z19" s="56">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AA19" s="70">
+      <c r="AA19" s="57">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -9418,11 +8957,11 @@
         <v>3</v>
       </c>
       <c r="I20" s="34"/>
-      <c r="J20" s="67">
+      <c r="J20" s="54">
         <f t="shared" si="8"/>
         <v>0.3010299956639812</v>
       </c>
-      <c r="K20" s="50">
+      <c r="K20" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9434,19 +8973,19 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N20" s="69">
+      <c r="N20" s="56">
         <f t="shared" si="4"/>
         <v>0.3010299956639812</v>
       </c>
-      <c r="O20" s="69">
+      <c r="O20" s="56">
         <f t="shared" si="5"/>
         <v>0.3010299956639812</v>
       </c>
-      <c r="P20" s="67">
+      <c r="P20" s="54">
         <f t="shared" si="6"/>
         <v>0.3010299956639812</v>
       </c>
-      <c r="Q20" s="50">
+      <c r="Q20" s="42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -9462,91 +9001,91 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U20" s="49">
+      <c r="U20" s="41">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="V20" s="68">
+      <c r="V20" s="55">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="W20" s="69">
+      <c r="W20" s="56">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="X20" s="69">
+      <c r="X20" s="56">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="69">
+      <c r="Y20" s="56">
         <f t="shared" si="17"/>
         <v>9.0619058289456544E-2</v>
       </c>
-      <c r="Z20" s="69">
+      <c r="Z20" s="56">
         <f t="shared" si="18"/>
         <v>9.0619058289456544E-2</v>
       </c>
-      <c r="AA20" s="70">
+      <c r="AA20" s="57">
         <f t="shared" si="19"/>
         <v>9.0619058289456544E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:27" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A21" s="52" t="s">
+    <row r="21" spans="1:27" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="A21" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="B21" s="52">
-        <v>0</v>
-      </c>
-      <c r="C21" s="52">
-        <v>0</v>
-      </c>
-      <c r="D21" s="52">
-        <v>0</v>
-      </c>
-      <c r="E21" s="52">
-        <v>0</v>
-      </c>
-      <c r="F21" s="52">
-        <v>0</v>
-      </c>
-      <c r="G21" s="52">
-        <v>1</v>
-      </c>
-      <c r="H21" s="52">
+      <c r="B21" s="43">
+        <v>0</v>
+      </c>
+      <c r="C21" s="43">
+        <v>0</v>
+      </c>
+      <c r="D21" s="43">
+        <v>0</v>
+      </c>
+      <c r="E21" s="43">
+        <v>0</v>
+      </c>
+      <c r="F21" s="43">
+        <v>0</v>
+      </c>
+      <c r="G21" s="43">
+        <v>1</v>
+      </c>
+      <c r="H21" s="43">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I21" s="52"/>
-      <c r="J21" s="67">
+      <c r="I21" s="43"/>
+      <c r="J21" s="54">
         <f t="shared" si="8"/>
         <v>0.77815125038364363</v>
       </c>
-      <c r="K21" s="55">
+      <c r="K21" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L21" s="53">
+      <c r="L21" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M21" s="53">
+      <c r="M21" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N21" s="53">
+      <c r="N21" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O21" s="53">
+      <c r="O21" s="44">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P21" s="73">
+      <c r="P21" s="60">
         <f t="shared" si="6"/>
         <v>0.77815125038364363</v>
       </c>
-      <c r="Q21" s="50">
+      <c r="Q21" s="42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -9562,31 +9101,31 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U21" s="49">
+      <c r="U21" s="41">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="V21" s="68">
+      <c r="V21" s="55">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="W21" s="69">
+      <c r="W21" s="56">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="X21" s="69">
+      <c r="X21" s="56">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="69">
+      <c r="Y21" s="56">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Z21" s="69">
+      <c r="Z21" s="56">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AA21" s="70">
+      <c r="AA21" s="57">
         <f t="shared" si="19"/>
         <v>0.60551936847362808</v>
       </c>
@@ -9618,11 +9157,11 @@
         <v>1</v>
       </c>
       <c r="I22" s="34"/>
-      <c r="J22" s="67">
+      <c r="J22" s="54">
         <f t="shared" si="8"/>
         <v>0.77815125038364363</v>
       </c>
-      <c r="K22" s="50">
+      <c r="K22" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9642,11 +9181,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P22" s="67">
+      <c r="P22" s="54">
         <f t="shared" si="6"/>
         <v>0.77815125038364363</v>
       </c>
-      <c r="Q22" s="50">
+      <c r="Q22" s="42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -9662,91 +9201,91 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U22" s="49">
+      <c r="U22" s="41">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="V22" s="68">
+      <c r="V22" s="55">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="W22" s="69">
+      <c r="W22" s="56">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="X22" s="69">
+      <c r="X22" s="56">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="69">
+      <c r="Y22" s="56">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Z22" s="69">
+      <c r="Z22" s="56">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AA22" s="70">
+      <c r="AA22" s="57">
         <f t="shared" si="19"/>
         <v>0.60551936847362808</v>
       </c>
     </row>
-    <row r="23" spans="1:27" s="56" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A23" s="52" t="s">
+    <row r="23" spans="1:27" s="47" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A23" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="B23" s="52">
-        <v>0</v>
-      </c>
-      <c r="C23" s="52">
-        <v>0</v>
-      </c>
-      <c r="D23" s="52">
-        <v>0</v>
-      </c>
-      <c r="E23" s="52">
-        <v>0</v>
-      </c>
-      <c r="F23" s="52">
-        <v>0</v>
-      </c>
-      <c r="G23" s="52">
-        <v>1</v>
-      </c>
-      <c r="H23" s="52">
+      <c r="B23" s="43">
+        <v>0</v>
+      </c>
+      <c r="C23" s="43">
+        <v>0</v>
+      </c>
+      <c r="D23" s="43">
+        <v>0</v>
+      </c>
+      <c r="E23" s="43">
+        <v>0</v>
+      </c>
+      <c r="F23" s="43">
+        <v>0</v>
+      </c>
+      <c r="G23" s="43">
+        <v>1</v>
+      </c>
+      <c r="H23" s="43">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I23" s="52"/>
-      <c r="J23" s="67">
+      <c r="I23" s="43"/>
+      <c r="J23" s="54">
         <f t="shared" si="8"/>
         <v>0.77815125038364363</v>
       </c>
-      <c r="K23" s="57">
+      <c r="K23" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L23" s="58">
+      <c r="L23" s="49">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M23" s="58">
+      <c r="M23" s="49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N23" s="58">
+      <c r="N23" s="49">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O23" s="58">
+      <c r="O23" s="49">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P23" s="74">
+      <c r="P23" s="61">
         <f t="shared" si="6"/>
         <v>0.77815125038364363</v>
       </c>
-      <c r="Q23" s="50">
+      <c r="Q23" s="42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -9762,2507 +9301,504 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U23" s="49">
+      <c r="U23" s="41">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="V23" s="68">
+      <c r="V23" s="55">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="W23" s="69">
+      <c r="W23" s="56">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="X23" s="69">
+      <c r="X23" s="56">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Y23" s="69">
+      <c r="Y23" s="56">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Z23" s="69">
+      <c r="Z23" s="56">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AA23" s="70">
+      <c r="AA23" s="57">
         <f t="shared" si="19"/>
         <v>0.60551936847362808</v>
       </c>
     </row>
     <row r="24" spans="1:27" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A24" s="65"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="75"/>
-      <c r="O24" s="75"/>
-      <c r="P24" s="75"/>
-      <c r="Q24" s="76">
+      <c r="A24" s="52"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="63">
         <f t="shared" ref="Q24:V24" si="20">SUM(Q12:Q23)</f>
         <v>6.2696697256545012E-3</v>
       </c>
-      <c r="R24" s="77">
+      <c r="R24" s="64">
         <f t="shared" si="20"/>
         <v>3.7277801241469538E-2</v>
       </c>
-      <c r="S24" s="77">
+      <c r="S24" s="64">
         <f t="shared" si="20"/>
         <v>3.7277801241469538E-2</v>
       </c>
-      <c r="T24" s="77">
+      <c r="T24" s="64">
         <f t="shared" si="20"/>
         <v>3.7277801241469538E-2</v>
       </c>
-      <c r="U24" s="78">
+      <c r="U24" s="65">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V24" s="79">
+      <c r="V24" s="66">
         <f t="shared" si="20"/>
         <v>0.64279716971509759</v>
       </c>
-      <c r="W24" s="79">
+      <c r="W24" s="66">
         <f t="shared" ref="W24:AA24" si="21">SUM(W12:W23)</f>
         <v>1.8228277751465387</v>
       </c>
-      <c r="X24" s="79">
+      <c r="X24" s="66">
         <f t="shared" si="21"/>
         <v>0.73341622800455419</v>
       </c>
-      <c r="Y24" s="79">
+      <c r="Y24" s="66">
         <f t="shared" si="21"/>
         <v>0.21851591782038263</v>
       </c>
-      <c r="Z24" s="79">
+      <c r="Z24" s="66">
         <f t="shared" si="21"/>
         <v>0.21851591782038263</v>
       </c>
-      <c r="AA24" s="79">
+      <c r="AA24" s="66">
         <f t="shared" si="21"/>
         <v>1.9071771637103407</v>
       </c>
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1" thickTop="1">
-      <c r="A25" s="66"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="75"/>
-      <c r="O25" s="75"/>
-      <c r="P25" s="75"/>
-      <c r="Q25" s="75"/>
-      <c r="R25" s="75"/>
-      <c r="S25" s="75"/>
-      <c r="T25" s="75"/>
-      <c r="U25" s="75"/>
-      <c r="V25" s="75">
+      <c r="A25" s="53"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="62"/>
+      <c r="S25" s="62"/>
+      <c r="T25" s="62"/>
+      <c r="U25" s="62"/>
+      <c r="V25" s="62">
         <f>SQRT(V24)</f>
         <v>0.80174632503997023</v>
       </c>
-      <c r="W25" s="75">
+      <c r="W25" s="62">
         <f t="shared" ref="W25:AA25" si="22">SQRT(W24)</f>
         <v>1.3501213927445705</v>
       </c>
-      <c r="X25" s="75">
+      <c r="X25" s="62">
         <f t="shared" si="22"/>
         <v>0.85639723727050532</v>
       </c>
-      <c r="Y25" s="75">
+      <c r="Y25" s="62">
         <f t="shared" si="22"/>
         <v>0.46745686198876429</v>
       </c>
-      <c r="Z25" s="75">
+      <c r="Z25" s="62">
         <f t="shared" si="22"/>
         <v>0.46745686198876429</v>
       </c>
-      <c r="AA25" s="75">
+      <c r="AA25" s="62">
         <f t="shared" si="22"/>
         <v>1.3810058521636832</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="15" customHeight="1" thickBot="1">
-      <c r="A26" s="66"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="75"/>
-      <c r="P26" s="75"/>
-      <c r="Q26" s="75"/>
-      <c r="R26" s="75"/>
-      <c r="S26" s="75"/>
-      <c r="T26" s="75"/>
-      <c r="U26" s="75"/>
-      <c r="V26" s="75"/>
-      <c r="W26" s="75">
+    <row r="26" spans="1:27" ht="15" customHeight="1">
+      <c r="A26" s="53"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="62"/>
+      <c r="R26" s="62"/>
+      <c r="S26" s="62"/>
+      <c r="T26" s="62"/>
+      <c r="U26" s="62"/>
+      <c r="V26" s="62"/>
+      <c r="W26" s="62">
         <f>Q24/(V25*W25)</f>
         <v>5.7920842045527275E-3</v>
       </c>
-      <c r="X26" s="75">
+      <c r="X26" s="62">
         <f>R24/(W25*X25)</f>
         <v>3.224053293670176E-2</v>
       </c>
-      <c r="Y26" s="75">
+      <c r="Y26" s="62">
         <f t="shared" ref="Y26:AA26" si="23">S24/(X25*Y25)</f>
         <v>9.3117968246604177E-2</v>
       </c>
-      <c r="Z26" s="75">
+      <c r="Z26" s="62">
         <f t="shared" si="23"/>
         <v>0.17059535805584392</v>
       </c>
-      <c r="AA26" s="75">
+      <c r="AA26" s="62">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="15" customHeight="1" thickBot="1">
-      <c r="A27" s="37" t="s">
-        <v>204</v>
-      </c>
-      <c r="B27" s="38">
-        <v>1</v>
-      </c>
-      <c r="C27" s="38">
-        <v>1</v>
-      </c>
-      <c r="D27" s="38">
-        <v>1</v>
-      </c>
-      <c r="E27" s="38">
-        <v>0</v>
-      </c>
-      <c r="F27" s="38">
-        <v>0</v>
-      </c>
-      <c r="G27" s="38">
-        <v>1</v>
-      </c>
-      <c r="H27" s="38">
-        <v>4</v>
-      </c>
-      <c r="I27" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="J27" s="43" t="s">
-        <v>205</v>
-      </c>
-      <c r="K27" s="80" t="s">
-        <v>205</v>
-      </c>
-      <c r="L27" s="81" t="s">
-        <v>205</v>
-      </c>
-      <c r="M27" s="81" t="s">
-        <v>205</v>
-      </c>
-      <c r="N27" s="110">
-        <v>0</v>
-      </c>
-      <c r="O27" s="110">
-        <v>0</v>
-      </c>
-      <c r="P27" s="83" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q27" s="84" t="s">
-        <v>219</v>
-      </c>
-      <c r="R27" s="82" t="s">
-        <v>219</v>
-      </c>
-      <c r="S27" s="110">
-        <v>0</v>
-      </c>
-      <c r="T27" s="110">
-        <v>0</v>
-      </c>
-      <c r="U27" s="85" t="s">
-        <v>219</v>
-      </c>
-      <c r="V27" s="84" t="s">
-        <v>219</v>
-      </c>
-      <c r="W27" s="82" t="s">
-        <v>219</v>
-      </c>
-      <c r="X27" s="82" t="s">
-        <v>219</v>
-      </c>
-      <c r="Y27" s="110">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="110">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="85" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" s="56" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A28" s="59" t="s">
-        <v>196</v>
-      </c>
-      <c r="B28" s="60">
-        <v>0</v>
-      </c>
-      <c r="C28" s="60">
-        <v>1</v>
-      </c>
-      <c r="D28" s="60">
-        <v>0</v>
-      </c>
-      <c r="E28" s="60">
-        <v>0</v>
-      </c>
-      <c r="F28" s="60">
-        <v>0</v>
-      </c>
-      <c r="G28" s="60">
-        <v>0</v>
-      </c>
-      <c r="H28" s="60">
-        <v>1</v>
-      </c>
-      <c r="I28" s="61" t="s">
+    <row r="27" spans="1:27" ht="15" customHeight="1">
+      <c r="A27" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="J28" s="62" t="s">
-        <v>206</v>
-      </c>
-      <c r="K28" s="118">
-        <v>0</v>
-      </c>
-      <c r="L28" s="87" t="s">
-        <v>206</v>
-      </c>
-      <c r="M28" s="111">
-        <v>0</v>
-      </c>
-      <c r="N28" s="111">
-        <v>0</v>
-      </c>
-      <c r="O28" s="111">
-        <v>0</v>
-      </c>
-      <c r="P28" s="112">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="122">
-        <v>0</v>
-      </c>
-      <c r="R28" s="111">
-        <v>0</v>
-      </c>
-      <c r="S28" s="111">
-        <v>0</v>
-      </c>
-      <c r="T28" s="111">
-        <v>0</v>
-      </c>
-      <c r="U28" s="112">
-        <v>0</v>
-      </c>
-      <c r="V28" s="122">
-        <v>0</v>
-      </c>
-      <c r="W28" s="88" t="s">
-        <v>224</v>
-      </c>
-      <c r="X28" s="111">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="111">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="111">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" ht="15" customHeight="1" thickBot="1">
-      <c r="A29" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="B29" s="41">
-        <v>0</v>
-      </c>
-      <c r="C29" s="41">
-        <v>1</v>
-      </c>
-      <c r="D29" s="41">
-        <v>0</v>
-      </c>
-      <c r="E29" s="41">
-        <v>0</v>
-      </c>
-      <c r="F29" s="41">
-        <v>0</v>
-      </c>
-      <c r="G29" s="41">
-        <v>0</v>
-      </c>
-      <c r="H29" s="41">
-        <v>1</v>
-      </c>
-      <c r="I29" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="J29" s="44" t="s">
-        <v>206</v>
-      </c>
-      <c r="K29" s="119">
-        <v>0</v>
-      </c>
-      <c r="L29" s="92" t="s">
-        <v>206</v>
-      </c>
-      <c r="M29" s="113">
-        <v>0</v>
-      </c>
-      <c r="N29" s="113">
-        <v>0</v>
-      </c>
-      <c r="O29" s="113">
-        <v>0</v>
-      </c>
-      <c r="P29" s="114">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="123">
-        <v>0</v>
-      </c>
-      <c r="R29" s="113">
-        <v>0</v>
-      </c>
-      <c r="S29" s="113">
-        <v>0</v>
-      </c>
-      <c r="T29" s="113">
-        <v>0</v>
-      </c>
-      <c r="U29" s="114">
-        <v>0</v>
-      </c>
-      <c r="V29" s="123">
-        <v>0</v>
-      </c>
-      <c r="W29" s="93" t="s">
-        <v>224</v>
-      </c>
-      <c r="X29" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" s="56" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A30" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="B30" s="60">
-        <v>0</v>
-      </c>
-      <c r="C30" s="60">
-        <v>1</v>
-      </c>
-      <c r="D30" s="60">
-        <v>0</v>
-      </c>
-      <c r="E30" s="60">
-        <v>0</v>
-      </c>
-      <c r="F30" s="60">
-        <v>0</v>
-      </c>
-      <c r="G30" s="60">
-        <v>0</v>
-      </c>
-      <c r="H30" s="60">
-        <v>1</v>
-      </c>
-      <c r="I30" s="61" t="s">
-        <v>206</v>
-      </c>
-      <c r="J30" s="62" t="s">
-        <v>206</v>
-      </c>
-      <c r="K30" s="118">
-        <v>0</v>
-      </c>
-      <c r="L30" s="87" t="s">
-        <v>206</v>
-      </c>
-      <c r="M30" s="111">
-        <v>0</v>
-      </c>
-      <c r="N30" s="111">
-        <v>0</v>
-      </c>
-      <c r="O30" s="111">
-        <v>0</v>
-      </c>
-      <c r="P30" s="112">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="122">
-        <v>0</v>
-      </c>
-      <c r="R30" s="111">
-        <v>0</v>
-      </c>
-      <c r="S30" s="111">
-        <v>0</v>
-      </c>
-      <c r="T30" s="111">
-        <v>0</v>
-      </c>
-      <c r="U30" s="112">
-        <v>0</v>
-      </c>
-      <c r="V30" s="122">
-        <v>0</v>
-      </c>
-      <c r="W30" s="88" t="s">
-        <v>224</v>
-      </c>
-      <c r="X30" s="111">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="111">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="111">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" ht="15" customHeight="1" thickBot="1">
-      <c r="A31" s="40" t="s">
+      <c r="B27" s="35" t="e">
+        <f>Q24/(V26*W26)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T27" s="67"/>
+      <c r="U27" s="67"/>
+      <c r="V27" s="67"/>
+      <c r="W27" s="67"/>
+      <c r="X27" s="67"/>
+      <c r="Y27" s="67"/>
+      <c r="Z27" s="67"/>
+      <c r="AA27" s="67"/>
+    </row>
+    <row r="28" spans="1:27" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="A28" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="B31" s="41">
-        <v>1</v>
-      </c>
-      <c r="C31" s="41">
-        <v>0</v>
-      </c>
-      <c r="D31" s="41">
-        <v>1</v>
-      </c>
-      <c r="E31" s="41">
-        <v>0</v>
-      </c>
-      <c r="F31" s="41">
-        <v>0</v>
-      </c>
-      <c r="G31" s="41">
-        <v>0</v>
-      </c>
-      <c r="H31" s="42">
-        <v>2</v>
-      </c>
-      <c r="I31" s="42" t="s">
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="67"/>
+      <c r="U28" s="67"/>
+      <c r="V28" s="67"/>
+      <c r="W28" s="67"/>
+      <c r="X28" s="67"/>
+      <c r="Y28" s="67"/>
+      <c r="Z28" s="67"/>
+      <c r="AA28" s="67"/>
+    </row>
+    <row r="29" spans="1:27" ht="15" customHeight="1">
+      <c r="A29" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="J31" s="44" t="s">
-        <v>208</v>
-      </c>
-      <c r="K31" s="91" t="s">
-        <v>208</v>
-      </c>
-      <c r="L31" s="115">
-        <v>0</v>
-      </c>
-      <c r="M31" s="92" t="s">
-        <v>208</v>
-      </c>
-      <c r="N31" s="113">
-        <v>0</v>
-      </c>
-      <c r="O31" s="113">
-        <v>0</v>
-      </c>
-      <c r="P31" s="114">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="123">
-        <v>0</v>
-      </c>
-      <c r="R31" s="93" t="s">
-        <v>220</v>
-      </c>
-      <c r="S31" s="113">
-        <v>0</v>
-      </c>
-      <c r="T31" s="113">
-        <v>0</v>
-      </c>
-      <c r="U31" s="114">
-        <v>0</v>
-      </c>
-      <c r="V31" s="95" t="s">
-        <v>220</v>
-      </c>
-      <c r="W31" s="113">
-        <v>0</v>
-      </c>
-      <c r="X31" s="93" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y31" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" s="56" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A32" s="59" t="s">
+      <c r="T29" s="67"/>
+      <c r="U29" s="67"/>
+      <c r="V29" s="67"/>
+      <c r="W29" s="67"/>
+      <c r="X29" s="67"/>
+      <c r="Y29" s="67"/>
+      <c r="Z29" s="67"/>
+      <c r="AA29" s="67"/>
+    </row>
+    <row r="30" spans="1:27" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="A30" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="B32" s="60">
-        <v>1</v>
-      </c>
-      <c r="C32" s="60">
-        <v>0</v>
-      </c>
-      <c r="D32" s="60">
-        <v>1</v>
-      </c>
-      <c r="E32" s="60">
-        <v>0</v>
-      </c>
-      <c r="F32" s="60">
-        <v>0</v>
-      </c>
-      <c r="G32" s="60">
-        <v>0</v>
-      </c>
-      <c r="H32" s="61">
-        <v>2</v>
-      </c>
-      <c r="I32" s="61" t="s">
-        <v>208</v>
-      </c>
-      <c r="J32" s="62" t="s">
-        <v>208</v>
-      </c>
-      <c r="K32" s="86" t="s">
-        <v>208</v>
-      </c>
-      <c r="L32" s="116">
-        <v>0</v>
-      </c>
-      <c r="M32" s="87" t="s">
-        <v>208</v>
-      </c>
-      <c r="N32" s="111">
-        <v>0</v>
-      </c>
-      <c r="O32" s="111">
-        <v>0</v>
-      </c>
-      <c r="P32" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="122">
-        <v>0</v>
-      </c>
-      <c r="R32" s="88" t="s">
-        <v>220</v>
-      </c>
-      <c r="S32" s="111">
-        <v>0</v>
-      </c>
-      <c r="T32" s="111">
-        <v>0</v>
-      </c>
-      <c r="U32" s="112">
-        <v>0</v>
-      </c>
-      <c r="V32" s="90" t="s">
-        <v>220</v>
-      </c>
-      <c r="W32" s="111">
-        <v>0</v>
-      </c>
-      <c r="X32" s="88" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y32" s="111">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="111">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" ht="15" customHeight="1" thickBot="1">
-      <c r="A33" s="40" t="s">
-        <v>167</v>
-      </c>
-      <c r="B33" s="41">
-        <v>1</v>
-      </c>
-      <c r="C33" s="41">
-        <v>0</v>
-      </c>
-      <c r="D33" s="41">
-        <v>1</v>
-      </c>
-      <c r="E33" s="41">
-        <v>1</v>
-      </c>
-      <c r="F33" s="41">
-        <v>1</v>
-      </c>
-      <c r="G33" s="41">
-        <v>1</v>
-      </c>
-      <c r="H33" s="41">
-        <v>5</v>
-      </c>
-      <c r="I33" s="42" t="s">
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="67"/>
+      <c r="U30" s="67"/>
+      <c r="V30" s="67"/>
+      <c r="W30" s="67"/>
+      <c r="X30" s="67"/>
+      <c r="Y30" s="67"/>
+      <c r="Z30" s="67"/>
+      <c r="AA30" s="67"/>
+    </row>
+    <row r="31" spans="1:27" ht="15" customHeight="1">
+      <c r="A31" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="J33" s="44" t="s">
-        <v>210</v>
-      </c>
-      <c r="K33" s="91" t="s">
-        <v>210</v>
-      </c>
-      <c r="L33" s="115">
-        <v>0</v>
-      </c>
-      <c r="M33" s="92" t="s">
-        <v>210</v>
-      </c>
-      <c r="N33" s="92" t="s">
-        <v>210</v>
-      </c>
-      <c r="O33" s="92" t="s">
-        <v>210</v>
-      </c>
-      <c r="P33" s="96" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q33" s="123">
-        <v>0</v>
-      </c>
-      <c r="R33" s="93" t="s">
-        <v>221</v>
-      </c>
-      <c r="S33" s="93" t="s">
-        <v>221</v>
-      </c>
-      <c r="T33" s="93" t="s">
-        <v>221</v>
-      </c>
-      <c r="U33" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="V33" s="95" t="s">
-        <v>221</v>
-      </c>
-      <c r="W33" s="113">
-        <v>0</v>
-      </c>
-      <c r="X33" s="93" t="s">
-        <v>221</v>
-      </c>
-      <c r="Y33" s="93" t="s">
-        <v>221</v>
-      </c>
-      <c r="Z33" s="93" t="s">
-        <v>221</v>
-      </c>
-      <c r="AA33" s="94" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" s="56" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A34" s="59" t="s">
-        <v>211</v>
-      </c>
-      <c r="B34" s="60">
-        <v>0</v>
-      </c>
-      <c r="C34" s="60">
-        <v>0</v>
-      </c>
-      <c r="D34" s="60">
-        <v>0</v>
-      </c>
-      <c r="E34" s="60">
-        <v>1</v>
-      </c>
-      <c r="F34" s="60">
-        <v>0</v>
-      </c>
-      <c r="G34" s="60">
-        <v>0</v>
-      </c>
-      <c r="H34" s="60">
-        <v>1</v>
-      </c>
-      <c r="I34" s="61" t="s">
-        <v>206</v>
-      </c>
-      <c r="J34" s="62" t="s">
-        <v>206</v>
-      </c>
-      <c r="K34" s="118">
-        <v>0</v>
-      </c>
-      <c r="L34" s="116">
-        <v>0</v>
-      </c>
-      <c r="M34" s="111">
-        <v>0</v>
-      </c>
-      <c r="N34" s="87" t="s">
-        <v>206</v>
-      </c>
-      <c r="O34" s="111">
-        <v>0</v>
-      </c>
-      <c r="P34" s="112">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="122">
-        <v>0</v>
-      </c>
-      <c r="R34" s="111">
-        <v>0</v>
-      </c>
-      <c r="S34" s="111">
-        <v>0</v>
-      </c>
-      <c r="T34" s="111">
-        <v>0</v>
-      </c>
-      <c r="U34" s="112">
-        <v>0</v>
-      </c>
-      <c r="V34" s="122">
-        <v>0</v>
-      </c>
-      <c r="W34" s="111">
-        <v>0</v>
-      </c>
-      <c r="X34" s="111">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="88" t="s">
-        <v>224</v>
-      </c>
-      <c r="Z34" s="111">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" ht="15" customHeight="1" thickBot="1">
-      <c r="A35" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="B35" s="41">
-        <v>0</v>
-      </c>
-      <c r="C35" s="41">
-        <v>0</v>
-      </c>
-      <c r="D35" s="41">
-        <v>0</v>
-      </c>
-      <c r="E35" s="41">
-        <v>1</v>
-      </c>
-      <c r="F35" s="41">
-        <v>0</v>
-      </c>
-      <c r="G35" s="41">
-        <v>0</v>
-      </c>
-      <c r="H35" s="41">
-        <v>1</v>
-      </c>
-      <c r="I35" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="J35" s="44" t="s">
-        <v>206</v>
-      </c>
-      <c r="K35" s="119">
-        <v>0</v>
-      </c>
-      <c r="L35" s="115">
-        <v>0</v>
-      </c>
-      <c r="M35" s="115">
-        <v>0</v>
-      </c>
-      <c r="N35" s="92" t="s">
-        <v>206</v>
-      </c>
-      <c r="O35" s="113">
-        <v>0</v>
-      </c>
-      <c r="P35" s="114">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="123">
-        <v>0</v>
-      </c>
-      <c r="R35" s="113">
-        <v>0</v>
-      </c>
-      <c r="S35" s="113">
-        <v>0</v>
-      </c>
-      <c r="T35" s="113">
-        <v>0</v>
-      </c>
-      <c r="U35" s="114">
-        <v>0</v>
-      </c>
-      <c r="V35" s="123">
-        <v>0</v>
-      </c>
-      <c r="W35" s="113">
-        <v>0</v>
-      </c>
-      <c r="X35" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="93" t="s">
-        <v>224</v>
-      </c>
-      <c r="Z35" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" s="56" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A36" s="59" t="s">
-        <v>213</v>
-      </c>
-      <c r="B36" s="60">
-        <v>0</v>
-      </c>
-      <c r="C36" s="60">
-        <v>0</v>
-      </c>
-      <c r="D36" s="60">
-        <v>0</v>
-      </c>
-      <c r="E36" s="60">
-        <v>0</v>
-      </c>
-      <c r="F36" s="60">
-        <v>1</v>
-      </c>
-      <c r="G36" s="60">
-        <v>0</v>
-      </c>
-      <c r="H36" s="60">
-        <v>1</v>
-      </c>
-      <c r="I36" s="61" t="s">
-        <v>206</v>
-      </c>
-      <c r="J36" s="62" t="s">
-        <v>206</v>
-      </c>
-      <c r="K36" s="118">
-        <v>0</v>
-      </c>
-      <c r="L36" s="116">
-        <v>0</v>
-      </c>
-      <c r="M36" s="116">
-        <v>0</v>
-      </c>
-      <c r="N36" s="111">
-        <v>0</v>
-      </c>
-      <c r="O36" s="87" t="s">
-        <v>206</v>
-      </c>
-      <c r="P36" s="112">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="122">
-        <v>0</v>
-      </c>
-      <c r="R36" s="111">
-        <v>0</v>
-      </c>
-      <c r="S36" s="111">
-        <v>0</v>
-      </c>
-      <c r="T36" s="111">
-        <v>0</v>
-      </c>
-      <c r="U36" s="112">
-        <v>0</v>
-      </c>
-      <c r="V36" s="122">
-        <v>0</v>
-      </c>
-      <c r="W36" s="111">
-        <v>0</v>
-      </c>
-      <c r="X36" s="111">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="111">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="88" t="s">
-        <v>224</v>
-      </c>
-      <c r="AA36" s="112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" ht="15" customHeight="1" thickBot="1">
-      <c r="A37" s="40" t="s">
-        <v>214</v>
-      </c>
-      <c r="B37" s="41">
-        <v>0</v>
-      </c>
-      <c r="C37" s="41">
-        <v>0</v>
-      </c>
-      <c r="D37" s="41">
-        <v>0</v>
-      </c>
-      <c r="E37" s="41">
-        <v>0</v>
-      </c>
-      <c r="F37" s="41">
-        <v>1</v>
-      </c>
-      <c r="G37" s="41">
-        <v>0</v>
-      </c>
-      <c r="H37" s="41">
-        <v>1</v>
-      </c>
-      <c r="I37" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="J37" s="44" t="s">
-        <v>206</v>
-      </c>
-      <c r="K37" s="119">
-        <v>0</v>
-      </c>
-      <c r="L37" s="115">
-        <v>0</v>
-      </c>
-      <c r="M37" s="115">
-        <v>0</v>
-      </c>
-      <c r="N37" s="113">
-        <v>0</v>
-      </c>
-      <c r="O37" s="92" t="s">
-        <v>206</v>
-      </c>
-      <c r="P37" s="114">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="123">
-        <v>0</v>
-      </c>
-      <c r="R37" s="113">
-        <v>0</v>
-      </c>
-      <c r="S37" s="113">
-        <v>0</v>
-      </c>
-      <c r="T37" s="113">
-        <v>0</v>
-      </c>
-      <c r="U37" s="114">
-        <v>0</v>
-      </c>
-      <c r="V37" s="123">
-        <v>0</v>
-      </c>
-      <c r="W37" s="113">
-        <v>0</v>
-      </c>
-      <c r="X37" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="93" t="s">
-        <v>224</v>
-      </c>
-      <c r="AA37" s="114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" s="56" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A38" s="59" t="s">
-        <v>215</v>
-      </c>
-      <c r="B38" s="60">
-        <v>0</v>
-      </c>
-      <c r="C38" s="60">
-        <v>0</v>
-      </c>
-      <c r="D38" s="60">
-        <v>0</v>
-      </c>
-      <c r="E38" s="60">
-        <v>0</v>
-      </c>
-      <c r="F38" s="60">
-        <v>0</v>
-      </c>
-      <c r="G38" s="60">
-        <v>1</v>
-      </c>
-      <c r="H38" s="60">
-        <v>1</v>
-      </c>
-      <c r="I38" s="61" t="s">
-        <v>206</v>
-      </c>
-      <c r="J38" s="62" t="s">
-        <v>206</v>
-      </c>
-      <c r="K38" s="118">
-        <v>0</v>
-      </c>
-      <c r="L38" s="116">
-        <v>0</v>
-      </c>
-      <c r="M38" s="116">
-        <v>0</v>
-      </c>
-      <c r="N38" s="111">
-        <v>0</v>
-      </c>
-      <c r="O38" s="111">
-        <v>0</v>
-      </c>
-      <c r="P38" s="97" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q38" s="122">
-        <v>0</v>
-      </c>
-      <c r="R38" s="111">
-        <v>0</v>
-      </c>
-      <c r="S38" s="111">
-        <v>0</v>
-      </c>
-      <c r="T38" s="111">
-        <v>0</v>
-      </c>
-      <c r="U38" s="112">
-        <v>0</v>
-      </c>
-      <c r="V38" s="122">
-        <v>0</v>
-      </c>
-      <c r="W38" s="111">
-        <v>0</v>
-      </c>
-      <c r="X38" s="111">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="111">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="111">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="89" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" ht="15" customHeight="1" thickBot="1">
-      <c r="A39" s="40" t="s">
-        <v>216</v>
-      </c>
-      <c r="B39" s="41">
-        <v>0</v>
-      </c>
-      <c r="C39" s="41">
-        <v>0</v>
-      </c>
-      <c r="D39" s="41">
-        <v>0</v>
-      </c>
-      <c r="E39" s="41">
-        <v>0</v>
-      </c>
-      <c r="F39" s="41">
-        <v>0</v>
-      </c>
-      <c r="G39" s="41">
-        <v>1</v>
-      </c>
-      <c r="H39" s="41">
-        <v>1</v>
-      </c>
-      <c r="I39" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="J39" s="44" t="s">
-        <v>206</v>
-      </c>
-      <c r="K39" s="119">
-        <v>0</v>
-      </c>
-      <c r="L39" s="115">
-        <v>0</v>
-      </c>
-      <c r="M39" s="115">
-        <v>0</v>
-      </c>
-      <c r="N39" s="113">
-        <v>0</v>
-      </c>
-      <c r="O39" s="113">
-        <v>0</v>
-      </c>
-      <c r="P39" s="96" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q39" s="123">
-        <v>0</v>
-      </c>
-      <c r="R39" s="113">
-        <v>0</v>
-      </c>
-      <c r="S39" s="113">
-        <v>0</v>
-      </c>
-      <c r="T39" s="113">
-        <v>0</v>
-      </c>
-      <c r="U39" s="114">
-        <v>0</v>
-      </c>
-      <c r="V39" s="123">
-        <v>0</v>
-      </c>
-      <c r="W39" s="113">
-        <v>0</v>
-      </c>
-      <c r="X39" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="94" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" s="56" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A40" s="59" t="s">
-        <v>217</v>
-      </c>
-      <c r="B40" s="60">
-        <v>0</v>
-      </c>
-      <c r="C40" s="60">
-        <v>0</v>
-      </c>
-      <c r="D40" s="60">
-        <v>0</v>
-      </c>
-      <c r="E40" s="60">
-        <v>0</v>
-      </c>
-      <c r="F40" s="60">
-        <v>0</v>
-      </c>
-      <c r="G40" s="60">
-        <v>1</v>
-      </c>
-      <c r="H40" s="60">
-        <v>1</v>
-      </c>
-      <c r="I40" s="61" t="s">
-        <v>206</v>
-      </c>
-      <c r="J40" s="62" t="s">
-        <v>206</v>
-      </c>
-      <c r="K40" s="118">
-        <v>0</v>
-      </c>
-      <c r="L40" s="116">
-        <v>0</v>
-      </c>
-      <c r="M40" s="116">
-        <v>0</v>
-      </c>
-      <c r="N40" s="111">
-        <v>0</v>
-      </c>
-      <c r="O40" s="111">
-        <v>0</v>
-      </c>
-      <c r="P40" s="97" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q40" s="122">
-        <v>0</v>
-      </c>
-      <c r="R40" s="111">
-        <v>0</v>
-      </c>
-      <c r="S40" s="111">
-        <v>0</v>
-      </c>
-      <c r="T40" s="111">
-        <v>0</v>
-      </c>
-      <c r="U40" s="112">
-        <v>0</v>
-      </c>
-      <c r="V40" s="122">
-        <v>0</v>
-      </c>
-      <c r="W40" s="111">
-        <v>0</v>
-      </c>
-      <c r="X40" s="111">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="111">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="111">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="89" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" ht="15" customHeight="1" thickBot="1">
-      <c r="A41" s="40" t="s">
-        <v>218</v>
-      </c>
-      <c r="B41" s="41">
-        <v>0</v>
-      </c>
-      <c r="C41" s="41">
-        <v>0</v>
-      </c>
-      <c r="D41" s="41">
-        <v>0</v>
-      </c>
-      <c r="E41" s="41">
-        <v>0</v>
-      </c>
-      <c r="F41" s="41">
-        <v>0</v>
-      </c>
-      <c r="G41" s="41">
-        <v>1</v>
-      </c>
-      <c r="H41" s="41">
-        <v>1</v>
-      </c>
-      <c r="I41" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="J41" s="44" t="s">
-        <v>206</v>
-      </c>
-      <c r="K41" s="120">
-        <v>0</v>
-      </c>
-      <c r="L41" s="117">
-        <v>0</v>
-      </c>
-      <c r="M41" s="117">
-        <v>0</v>
-      </c>
-      <c r="N41" s="121">
-        <v>0</v>
-      </c>
-      <c r="O41" s="121">
-        <v>0</v>
-      </c>
-      <c r="P41" s="98" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q41" s="123">
-        <v>0</v>
-      </c>
-      <c r="R41" s="113">
-        <v>0</v>
-      </c>
-      <c r="S41" s="113">
-        <v>0</v>
-      </c>
-      <c r="T41" s="113">
-        <v>0</v>
-      </c>
-      <c r="U41" s="114">
-        <v>0</v>
-      </c>
-      <c r="V41" s="123">
-        <v>0</v>
-      </c>
-      <c r="W41" s="113">
-        <v>0</v>
-      </c>
-      <c r="X41" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="94" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" ht="15" customHeight="1" thickBot="1">
-      <c r="K42" s="99"/>
-      <c r="L42" s="99"/>
-      <c r="M42" s="99"/>
-      <c r="N42" s="99"/>
-      <c r="O42" s="99"/>
-      <c r="P42" s="99"/>
-      <c r="Q42" s="100" t="s">
-        <v>219</v>
-      </c>
-      <c r="R42" s="101" t="s">
-        <v>222</v>
-      </c>
-      <c r="S42" s="101" t="s">
-        <v>221</v>
-      </c>
-      <c r="T42" s="101" t="s">
-        <v>221</v>
-      </c>
-      <c r="U42" s="102" t="s">
-        <v>223</v>
-      </c>
-      <c r="V42" s="91" t="s">
-        <v>222</v>
-      </c>
-      <c r="W42" s="92">
-        <v>1847562</v>
-      </c>
-      <c r="X42" s="92" t="s">
-        <v>222</v>
-      </c>
-      <c r="Y42" s="92">
-        <v>1217305</v>
-      </c>
-      <c r="Z42" s="92">
-        <v>1217305</v>
-      </c>
-      <c r="AA42" s="96">
-        <v>2459349</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" ht="16" customHeight="1">
-      <c r="K43" s="99"/>
-      <c r="L43" s="99"/>
-      <c r="M43" s="99"/>
-      <c r="N43" s="99"/>
-      <c r="O43" s="99"/>
-      <c r="P43" s="99"/>
-      <c r="Q43" s="99"/>
-      <c r="R43" s="99"/>
-      <c r="S43" s="99"/>
-      <c r="T43" s="99"/>
-      <c r="U43" s="99"/>
-      <c r="V43" s="138" t="s">
-        <v>225</v>
-      </c>
-      <c r="W43" s="140">
-        <v>1359251</v>
-      </c>
-      <c r="X43" s="140" t="s">
-        <v>225</v>
-      </c>
-      <c r="Y43" s="140">
-        <v>1103315</v>
-      </c>
-      <c r="Z43" s="140">
-        <v>1103315</v>
-      </c>
-      <c r="AA43" s="142">
-        <v>1568231</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27" ht="15" customHeight="1" thickBot="1">
-      <c r="K44" s="99"/>
-      <c r="L44" s="99"/>
-      <c r="M44" s="99"/>
-      <c r="N44" s="99"/>
-      <c r="O44" s="99"/>
-      <c r="P44" s="99"/>
-      <c r="Q44" s="99"/>
-      <c r="R44" s="99"/>
-      <c r="S44" s="99"/>
-      <c r="T44" s="99"/>
-      <c r="U44" s="99"/>
-      <c r="V44" s="139"/>
-      <c r="W44" s="141"/>
-      <c r="X44" s="141"/>
-      <c r="Y44" s="141"/>
-      <c r="Z44" s="141"/>
-      <c r="AA44" s="143"/>
-    </row>
-    <row r="45" spans="1:27" ht="15" customHeight="1" thickTop="1">
-      <c r="A45" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="B45" s="34">
-        <v>1</v>
-      </c>
-      <c r="C45" s="34">
-        <v>0</v>
-      </c>
-      <c r="D45" s="34">
-        <v>0</v>
-      </c>
-      <c r="E45" s="34">
-        <v>1</v>
-      </c>
-      <c r="H45" s="34">
-        <f>SUM(B45:E45)</f>
-        <v>2</v>
-      </c>
-      <c r="J45" s="103">
-        <f>LOG(4/H45)+1</f>
-        <v>1.3010299956639813</v>
-      </c>
-      <c r="K45" s="106">
-        <f>B45*J45</f>
-        <v>1.3010299956639813</v>
-      </c>
-      <c r="L45" s="107">
-        <f>C45*J45</f>
-        <v>0</v>
-      </c>
-      <c r="M45" s="107">
-        <f>D45*J45</f>
-        <v>0</v>
-      </c>
-      <c r="N45" s="108">
-        <f>E45*J45</f>
-        <v>1.3010299956639813</v>
-      </c>
-      <c r="O45" s="99"/>
-      <c r="P45" s="99"/>
-      <c r="Q45" s="104">
-        <v>0</v>
-      </c>
-      <c r="R45" s="104">
-        <v>0</v>
-      </c>
-      <c r="S45" s="99">
-        <v>1.6926790609</v>
-      </c>
-      <c r="T45" s="99"/>
-      <c r="U45" s="99"/>
-      <c r="V45" s="99"/>
-      <c r="W45" s="99"/>
-      <c r="X45" s="99"/>
-      <c r="Y45" s="99"/>
-      <c r="Z45" s="99"/>
-      <c r="AA45" s="99"/>
-    </row>
-    <row r="46" spans="1:27" ht="15" customHeight="1">
-      <c r="A46" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="B46" s="34">
-        <v>2</v>
-      </c>
-      <c r="C46" s="34">
-        <v>0</v>
-      </c>
-      <c r="D46" s="34">
-        <v>2</v>
-      </c>
-      <c r="E46" s="34">
-        <v>2</v>
-      </c>
-      <c r="H46" s="34">
-        <v>3</v>
-      </c>
-      <c r="J46" s="103">
-        <f t="shared" ref="J46:J60" si="24">LOG(4/H46)+1</f>
-        <v>1.1249387366082999</v>
-      </c>
-      <c r="K46" s="68">
-        <f t="shared" ref="K46:K60" si="25">B46*J46</f>
-        <v>2.2498774732165998</v>
-      </c>
-      <c r="L46" s="36">
-        <f t="shared" ref="L46:L60" si="26">C46*J46</f>
-        <v>0</v>
-      </c>
-      <c r="M46" s="69">
-        <f t="shared" ref="M46:M60" si="27">D46*J46</f>
-        <v>2.2498774732165998</v>
-      </c>
-      <c r="N46" s="70">
-        <f t="shared" ref="N46:N60" si="28">E46*J46</f>
-        <v>2.2498774732165998</v>
-      </c>
-      <c r="O46" s="99"/>
-      <c r="P46" s="99"/>
-      <c r="Q46" s="104">
-        <v>0</v>
-      </c>
-      <c r="R46" s="99">
-        <v>5.0619486750111999</v>
-      </c>
-      <c r="S46" s="99">
-        <v>5.0619486699999996</v>
-      </c>
-      <c r="T46" s="99"/>
-      <c r="U46" s="99"/>
-      <c r="V46" s="99"/>
-      <c r="W46" s="99"/>
-      <c r="X46" s="99"/>
-      <c r="Y46" s="99"/>
-      <c r="Z46" s="99"/>
-      <c r="AA46" s="99"/>
-    </row>
-    <row r="47" spans="1:27" ht="15" customHeight="1">
-      <c r="A47" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="B47" s="34">
-        <v>1</v>
-      </c>
-      <c r="C47" s="34">
-        <v>0</v>
-      </c>
-      <c r="D47" s="34">
-        <v>1</v>
-      </c>
-      <c r="E47" s="34">
-        <v>1</v>
-      </c>
-      <c r="H47" s="34">
-        <f>SUM(B47:E47)</f>
-        <v>3</v>
-      </c>
-      <c r="J47" s="103">
-        <f t="shared" si="24"/>
-        <v>1.1249387366082999</v>
-      </c>
-      <c r="K47" s="68">
-        <f t="shared" si="25"/>
-        <v>1.1249387366082999</v>
-      </c>
-      <c r="L47" s="36">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="M47" s="69">
-        <f t="shared" si="27"/>
-        <v>1.1249387366082999</v>
-      </c>
-      <c r="N47" s="70">
-        <f t="shared" si="28"/>
-        <v>1.1249387366082999</v>
-      </c>
-      <c r="O47" s="99"/>
-      <c r="P47" s="99"/>
-      <c r="Q47" s="104">
-        <v>0</v>
-      </c>
-      <c r="R47" s="99">
-        <v>1.2654871687528</v>
-      </c>
-      <c r="S47" s="99">
-        <v>1.2654871000000001</v>
-      </c>
-      <c r="T47" s="99"/>
-      <c r="U47" s="99"/>
-      <c r="V47" s="99"/>
-      <c r="W47" s="99"/>
-      <c r="X47" s="99"/>
-      <c r="Y47" s="99"/>
-      <c r="Z47" s="99"/>
-      <c r="AA47" s="99"/>
-    </row>
-    <row r="48" spans="1:27" ht="15" customHeight="1">
-      <c r="A48" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="B48" s="34">
-        <v>1</v>
-      </c>
-      <c r="C48" s="34">
-        <v>2</v>
-      </c>
-      <c r="D48" s="34">
-        <v>1</v>
-      </c>
-      <c r="E48" s="34">
-        <v>1</v>
-      </c>
-      <c r="H48" s="34">
-        <v>4</v>
-      </c>
-      <c r="J48" s="105">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="K48" s="50">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="L48" s="36">
-        <f t="shared" si="26"/>
-        <v>2</v>
-      </c>
-      <c r="M48" s="36">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="N48" s="49">
-        <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="O48" s="99"/>
-      <c r="P48" s="99"/>
-      <c r="Q48" s="104">
-        <v>2</v>
-      </c>
-      <c r="R48" s="104">
-        <v>1</v>
-      </c>
-      <c r="S48" s="99">
-        <v>1</v>
-      </c>
-      <c r="T48" s="99"/>
-      <c r="U48" s="99"/>
-      <c r="V48" s="99"/>
-      <c r="W48" s="99"/>
-      <c r="X48" s="99"/>
-      <c r="Y48" s="99"/>
-      <c r="Z48" s="99"/>
-      <c r="AA48" s="99"/>
-    </row>
-    <row r="49" spans="1:27" ht="15" customHeight="1">
-      <c r="A49" s="34" t="s">
-        <v>230</v>
-      </c>
-      <c r="B49" s="34">
-        <v>1</v>
-      </c>
-      <c r="C49" s="34">
-        <v>0</v>
-      </c>
-      <c r="D49" s="34">
-        <v>0</v>
-      </c>
-      <c r="E49" s="34">
-        <v>1</v>
-      </c>
-      <c r="H49" s="34">
-        <f t="shared" ref="H49:H60" si="29">SUM(B49:E49)</f>
-        <v>2</v>
-      </c>
-      <c r="J49" s="103">
-        <f t="shared" si="24"/>
-        <v>1.3010299956639813</v>
-      </c>
-      <c r="K49" s="68">
-        <f t="shared" si="25"/>
-        <v>1.3010299956639813</v>
-      </c>
-      <c r="L49" s="36">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="M49" s="36">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="N49" s="70">
-        <f t="shared" si="28"/>
-        <v>1.3010299956639813</v>
-      </c>
-      <c r="O49" s="99"/>
-      <c r="P49" s="99"/>
-      <c r="Q49" s="104">
-        <v>0</v>
-      </c>
-      <c r="R49" s="104">
-        <v>0</v>
-      </c>
-      <c r="S49" s="99">
-        <v>1.692679</v>
-      </c>
-      <c r="T49" s="99"/>
-      <c r="U49" s="99"/>
-      <c r="V49" s="99"/>
-      <c r="W49" s="99"/>
-      <c r="X49" s="99"/>
-      <c r="Y49" s="99"/>
-      <c r="Z49" s="99"/>
-      <c r="AA49" s="99"/>
-    </row>
-    <row r="50" spans="1:27" ht="15" customHeight="1">
-      <c r="A50" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="B50" s="34">
-        <v>1</v>
-      </c>
-      <c r="C50" s="34">
-        <v>0</v>
-      </c>
-      <c r="D50" s="34">
-        <v>1</v>
-      </c>
-      <c r="E50" s="34">
-        <v>1</v>
-      </c>
-      <c r="H50" s="34">
-        <f t="shared" si="29"/>
-        <v>3</v>
-      </c>
-      <c r="J50" s="103">
-        <f t="shared" si="24"/>
-        <v>1.1249387366082999</v>
-      </c>
-      <c r="K50" s="68">
-        <f t="shared" si="25"/>
-        <v>1.1249387366082999</v>
-      </c>
-      <c r="L50" s="36">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="M50" s="69">
-        <f t="shared" si="27"/>
-        <v>1.1249387366082999</v>
-      </c>
-      <c r="N50" s="70">
-        <f t="shared" si="28"/>
-        <v>1.1249387366082999</v>
-      </c>
-      <c r="O50" s="99"/>
-      <c r="P50" s="99"/>
-      <c r="Q50" s="104">
-        <v>0</v>
-      </c>
-      <c r="R50" s="99">
-        <v>1.2654871000000001</v>
-      </c>
-      <c r="S50" s="99">
-        <v>1.2654871679999999</v>
-      </c>
-      <c r="T50" s="99"/>
-      <c r="U50" s="99"/>
-      <c r="V50" s="99"/>
-      <c r="W50" s="99"/>
-      <c r="X50" s="99"/>
-      <c r="Y50" s="99"/>
-      <c r="Z50" s="99"/>
-      <c r="AA50" s="99"/>
-    </row>
-    <row r="51" spans="1:27" ht="15" customHeight="1">
-      <c r="A51" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="B51" s="34">
-        <v>0</v>
-      </c>
-      <c r="C51" s="34">
-        <v>0</v>
-      </c>
-      <c r="D51" s="34">
-        <v>1</v>
-      </c>
-      <c r="E51" s="34">
-        <v>0</v>
-      </c>
-      <c r="H51" s="34">
-        <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="J51" s="103">
-        <f t="shared" si="24"/>
-        <v>1.6020599913279625</v>
-      </c>
-      <c r="K51" s="50">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="L51" s="36">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="M51" s="69">
-        <f t="shared" si="27"/>
-        <v>1.6020599913279625</v>
-      </c>
-      <c r="N51" s="49">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="O51" s="99"/>
-      <c r="P51" s="99"/>
-      <c r="Q51" s="104">
-        <v>0</v>
-      </c>
-      <c r="R51" s="104">
-        <v>0</v>
-      </c>
-      <c r="S51" s="104">
-        <v>0</v>
-      </c>
-      <c r="T51" s="99"/>
-      <c r="U51" s="99"/>
-      <c r="V51" s="99"/>
-      <c r="W51" s="99"/>
-      <c r="X51" s="99"/>
-      <c r="Y51" s="99"/>
-      <c r="Z51" s="99"/>
-      <c r="AA51" s="99"/>
-    </row>
-    <row r="52" spans="1:27" ht="15" customHeight="1">
-      <c r="A52" s="34" t="s">
-        <v>232</v>
-      </c>
-      <c r="B52" s="34">
-        <v>0</v>
-      </c>
-      <c r="C52" s="34">
-        <v>0</v>
-      </c>
-      <c r="D52" s="34">
-        <v>1</v>
-      </c>
-      <c r="E52" s="34">
-        <v>1</v>
-      </c>
-      <c r="H52" s="34">
-        <f t="shared" si="29"/>
-        <v>2</v>
-      </c>
-      <c r="J52" s="103">
-        <f t="shared" si="24"/>
-        <v>1.3010299956639813</v>
-      </c>
-      <c r="K52" s="50">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="L52" s="36">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="M52" s="69">
-        <f t="shared" si="27"/>
-        <v>1.3010299956639813</v>
-      </c>
-      <c r="N52" s="70">
-        <f t="shared" si="28"/>
-        <v>1.3010299956639813</v>
-      </c>
-      <c r="O52" s="99"/>
-      <c r="P52" s="99"/>
-      <c r="Q52" s="104">
-        <v>0</v>
-      </c>
-      <c r="R52" s="104">
-        <v>0</v>
-      </c>
-      <c r="S52" s="104">
-        <v>0</v>
-      </c>
-      <c r="T52" s="99"/>
-      <c r="U52" s="99"/>
-      <c r="V52" s="99"/>
-      <c r="W52" s="99"/>
-      <c r="X52" s="99"/>
-      <c r="Y52" s="99"/>
-      <c r="Z52" s="99"/>
-      <c r="AA52" s="99"/>
-    </row>
-    <row r="53" spans="1:27" ht="15" customHeight="1">
-      <c r="A53" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="B53" s="34">
-        <v>1</v>
-      </c>
-      <c r="C53" s="34">
-        <v>0</v>
-      </c>
-      <c r="D53" s="34">
-        <v>0</v>
-      </c>
-      <c r="E53" s="34">
-        <v>1</v>
-      </c>
-      <c r="H53" s="34">
-        <f t="shared" si="29"/>
-        <v>2</v>
-      </c>
-      <c r="J53" s="103">
-        <f t="shared" si="24"/>
-        <v>1.3010299956639813</v>
-      </c>
-      <c r="K53" s="68">
-        <f t="shared" si="25"/>
-        <v>1.3010299956639813</v>
-      </c>
-      <c r="L53" s="36">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="M53" s="36">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="N53" s="70">
-        <f t="shared" si="28"/>
-        <v>1.3010299956639813</v>
-      </c>
-      <c r="O53" s="99"/>
-      <c r="P53" s="99"/>
-      <c r="Q53" s="104">
-        <v>0</v>
-      </c>
-      <c r="R53" s="104">
-        <v>0</v>
-      </c>
-      <c r="S53" s="99">
-        <v>1.6926790609</v>
-      </c>
-      <c r="T53" s="99"/>
-      <c r="U53" s="99"/>
-      <c r="V53" s="99"/>
-      <c r="W53" s="99"/>
-      <c r="X53" s="99"/>
-      <c r="Y53" s="99"/>
-      <c r="Z53" s="99"/>
-      <c r="AA53" s="99"/>
-    </row>
-    <row r="54" spans="1:27" ht="15" customHeight="1">
-      <c r="A54" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="B54" s="34">
-        <v>1</v>
-      </c>
-      <c r="C54" s="34">
-        <v>0</v>
-      </c>
-      <c r="D54" s="34">
-        <v>0</v>
-      </c>
-      <c r="E54" s="34">
-        <v>0</v>
-      </c>
-      <c r="H54" s="34">
-        <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="J54" s="103">
-        <f t="shared" si="24"/>
-        <v>1.6020599913279625</v>
-      </c>
-      <c r="K54" s="68">
-        <f t="shared" si="25"/>
-        <v>1.6020599913279625</v>
-      </c>
-      <c r="L54" s="36">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="M54" s="36">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="N54" s="49">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="O54" s="99"/>
-      <c r="P54" s="99"/>
-      <c r="Q54" s="104">
-        <v>0</v>
-      </c>
-      <c r="R54" s="104">
-        <v>0</v>
-      </c>
-      <c r="S54" s="104">
-        <v>0</v>
-      </c>
-      <c r="T54" s="99"/>
-      <c r="U54" s="99"/>
-      <c r="V54" s="99"/>
-      <c r="W54" s="99"/>
-      <c r="X54" s="99"/>
-      <c r="Y54" s="99"/>
-      <c r="Z54" s="99"/>
-      <c r="AA54" s="99"/>
-    </row>
-    <row r="55" spans="1:27" ht="15" customHeight="1">
-      <c r="A55" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="B55" s="34">
-        <v>1</v>
-      </c>
-      <c r="C55" s="34">
-        <v>0</v>
-      </c>
-      <c r="D55" s="34">
-        <v>0</v>
-      </c>
-      <c r="E55" s="34">
-        <v>0</v>
-      </c>
-      <c r="H55" s="34">
-        <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="J55" s="103">
-        <f t="shared" si="24"/>
-        <v>1.6020599913279625</v>
-      </c>
-      <c r="K55" s="68">
-        <f t="shared" si="25"/>
-        <v>1.6020599913279625</v>
-      </c>
-      <c r="L55" s="36">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="M55" s="36">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="N55" s="49">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="O55" s="99"/>
-      <c r="P55" s="99"/>
-      <c r="Q55" s="104">
-        <v>0</v>
-      </c>
-      <c r="R55" s="104">
-        <v>0</v>
-      </c>
-      <c r="S55" s="104">
-        <v>0</v>
-      </c>
-      <c r="T55" s="99"/>
-      <c r="U55" s="99"/>
-      <c r="V55" s="99"/>
-      <c r="W55" s="99"/>
-      <c r="X55" s="99"/>
-      <c r="Y55" s="99"/>
-      <c r="Z55" s="99"/>
-      <c r="AA55" s="99"/>
-    </row>
-    <row r="56" spans="1:27" ht="15" customHeight="1">
-      <c r="A56" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="B56" s="34">
-        <v>1</v>
-      </c>
-      <c r="C56" s="34">
-        <v>1</v>
-      </c>
-      <c r="D56" s="34">
-        <v>1</v>
-      </c>
-      <c r="E56" s="34">
-        <v>1</v>
-      </c>
-      <c r="H56" s="34">
-        <f t="shared" si="29"/>
-        <v>4</v>
-      </c>
-      <c r="J56" s="105">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="K56" s="50">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="L56" s="36">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="M56" s="36">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="N56" s="49">
-        <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="O56" s="99"/>
-      <c r="P56" s="99"/>
-      <c r="Q56" s="104">
-        <v>1</v>
-      </c>
-      <c r="R56" s="104">
-        <v>1</v>
-      </c>
-      <c r="S56" s="104">
-        <v>1</v>
-      </c>
-      <c r="T56" s="99"/>
-      <c r="U56" s="99"/>
-      <c r="V56" s="99"/>
-      <c r="W56" s="99"/>
-      <c r="X56" s="99"/>
-      <c r="Y56" s="99"/>
-      <c r="Z56" s="99"/>
-      <c r="AA56" s="99"/>
-    </row>
-    <row r="57" spans="1:27" ht="15" customHeight="1">
-      <c r="A57" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="B57" s="34">
-        <v>0</v>
-      </c>
-      <c r="C57" s="34">
-        <v>0</v>
-      </c>
-      <c r="D57" s="34">
-        <v>1</v>
-      </c>
-      <c r="E57" s="34">
-        <v>0</v>
-      </c>
-      <c r="H57" s="34">
-        <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="J57" s="103">
-        <f t="shared" si="24"/>
-        <v>1.6020599913279625</v>
-      </c>
-      <c r="K57" s="50">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="L57" s="36">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="M57" s="69">
-        <f t="shared" si="27"/>
-        <v>1.6020599913279625</v>
-      </c>
-      <c r="N57" s="49">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="O57" s="99"/>
-      <c r="P57" s="99"/>
-      <c r="Q57" s="104">
-        <v>0</v>
-      </c>
-      <c r="R57" s="104">
-        <v>0</v>
-      </c>
-      <c r="S57" s="104">
-        <v>0</v>
-      </c>
-      <c r="T57" s="99"/>
-      <c r="U57" s="99"/>
-      <c r="V57" s="99"/>
-      <c r="W57" s="99"/>
-      <c r="X57" s="99"/>
-      <c r="Y57" s="99"/>
-      <c r="Z57" s="99"/>
-      <c r="AA57" s="99"/>
-    </row>
-    <row r="58" spans="1:27" ht="15" customHeight="1">
-      <c r="A58" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="B58" s="34">
-        <v>0</v>
-      </c>
-      <c r="C58" s="34">
-        <v>0</v>
-      </c>
-      <c r="D58" s="34">
-        <v>0</v>
-      </c>
-      <c r="E58" s="34">
-        <v>1</v>
-      </c>
-      <c r="H58" s="34">
-        <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="J58" s="103">
-        <f t="shared" si="24"/>
-        <v>1.6020599913279625</v>
-      </c>
-      <c r="K58" s="50">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="L58" s="36">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="M58" s="36">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="N58" s="70">
-        <f t="shared" si="28"/>
-        <v>1.6020599913279625</v>
-      </c>
-      <c r="O58" s="99"/>
-      <c r="P58" s="99"/>
-      <c r="Q58" s="104">
-        <v>0</v>
-      </c>
-      <c r="R58" s="104">
-        <v>0</v>
-      </c>
-      <c r="S58" s="104">
-        <v>0</v>
-      </c>
-      <c r="T58" s="99"/>
-      <c r="U58" s="99"/>
-      <c r="V58" s="99"/>
-      <c r="W58" s="99"/>
-      <c r="X58" s="99"/>
-      <c r="Y58" s="99"/>
-      <c r="Z58" s="99"/>
-      <c r="AA58" s="99"/>
-    </row>
-    <row r="59" spans="1:27" ht="15" customHeight="1">
-      <c r="A59" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="B59" s="34">
-        <v>0</v>
-      </c>
-      <c r="C59" s="34">
-        <v>1</v>
-      </c>
-      <c r="D59" s="34">
-        <v>0</v>
-      </c>
-      <c r="E59" s="34">
-        <v>0</v>
-      </c>
-      <c r="H59" s="34">
-        <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="J59" s="103">
-        <f t="shared" si="24"/>
-        <v>1.6020599913279625</v>
-      </c>
-      <c r="K59" s="50">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="L59" s="69">
-        <f t="shared" si="26"/>
-        <v>1.6020599913279625</v>
-      </c>
-      <c r="M59" s="36">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="N59" s="49">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="O59" s="99"/>
-      <c r="P59" s="99"/>
-      <c r="Q59" s="104">
-        <v>0</v>
-      </c>
-      <c r="R59" s="104">
-        <v>0</v>
-      </c>
-      <c r="S59" s="104">
-        <v>0</v>
-      </c>
-      <c r="T59" s="99"/>
-      <c r="U59" s="99"/>
-      <c r="V59" s="99"/>
-      <c r="W59" s="99"/>
-      <c r="X59" s="99"/>
-      <c r="Y59" s="99"/>
-      <c r="Z59" s="99"/>
-      <c r="AA59" s="99"/>
-    </row>
-    <row r="60" spans="1:27" ht="15" customHeight="1" thickBot="1">
-      <c r="A60" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="B60" s="34">
-        <v>1</v>
-      </c>
-      <c r="C60" s="34">
-        <v>0</v>
-      </c>
-      <c r="D60" s="34">
-        <v>0</v>
-      </c>
-      <c r="E60" s="34">
-        <v>0</v>
-      </c>
-      <c r="H60" s="34">
-        <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="J60" s="103">
-        <f t="shared" si="24"/>
-        <v>1.6020599913279625</v>
-      </c>
-      <c r="K60" s="76">
-        <f t="shared" si="25"/>
-        <v>1.6020599913279625</v>
-      </c>
-      <c r="L60" s="51">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="M60" s="51">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="N60" s="109">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="O60" s="99"/>
-      <c r="P60" s="99"/>
-      <c r="Q60" s="104">
-        <v>0</v>
-      </c>
-      <c r="R60" s="104">
-        <v>0</v>
-      </c>
-      <c r="S60" s="104">
-        <v>0</v>
-      </c>
-      <c r="T60" s="99"/>
-      <c r="U60" s="99"/>
-      <c r="V60" s="99"/>
-      <c r="W60" s="99"/>
-      <c r="X60" s="99"/>
-      <c r="Y60" s="99"/>
-      <c r="Z60" s="99"/>
-      <c r="AA60" s="99"/>
-    </row>
-    <row r="61" spans="1:27" ht="15" customHeight="1" thickTop="1">
-      <c r="Q61" s="104">
-        <f>SUM(Q45:Q60)</f>
-        <v>3</v>
-      </c>
-      <c r="R61" s="99">
-        <f>SUM(R45:R60)</f>
-        <v>9.592922943764</v>
-      </c>
-      <c r="S61" s="99">
-        <f>SUM(S45:S60)</f>
-        <v>14.670960059799999</v>
-      </c>
-    </row>
+      <c r="T31" s="67"/>
+      <c r="U31" s="67"/>
+      <c r="V31" s="67"/>
+      <c r="W31" s="67"/>
+      <c r="X31" s="67"/>
+      <c r="Y31" s="67"/>
+      <c r="Z31" s="67"/>
+      <c r="AA31" s="67"/>
+    </row>
+    <row r="32" spans="1:27" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="67"/>
+      <c r="U32" s="67"/>
+      <c r="V32" s="67"/>
+      <c r="W32" s="67"/>
+      <c r="X32" s="67"/>
+      <c r="Y32" s="67"/>
+      <c r="Z32" s="67"/>
+      <c r="AA32" s="67"/>
+    </row>
+    <row r="33" spans="1:27" ht="15" customHeight="1">
+      <c r="T33" s="67"/>
+      <c r="U33" s="67"/>
+      <c r="V33" s="67"/>
+      <c r="W33" s="67"/>
+      <c r="X33" s="67"/>
+      <c r="Y33" s="67"/>
+      <c r="Z33" s="67"/>
+      <c r="AA33" s="67"/>
+    </row>
+    <row r="34" spans="1:27" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="67"/>
+      <c r="U34" s="67"/>
+      <c r="V34" s="67"/>
+      <c r="W34" s="67"/>
+      <c r="X34" s="67"/>
+      <c r="Y34" s="67"/>
+      <c r="Z34" s="67"/>
+      <c r="AA34" s="67"/>
+    </row>
+    <row r="35" spans="1:27" ht="15" customHeight="1">
+      <c r="T35" s="67"/>
+      <c r="U35" s="67"/>
+      <c r="V35" s="67"/>
+      <c r="W35" s="67"/>
+      <c r="X35" s="67"/>
+      <c r="Y35" s="67"/>
+      <c r="Z35" s="67"/>
+      <c r="AA35" s="67"/>
+    </row>
+    <row r="36" spans="1:27" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="67"/>
+      <c r="U36" s="67"/>
+      <c r="V36" s="67"/>
+      <c r="W36" s="67"/>
+      <c r="X36" s="67"/>
+      <c r="Y36" s="67"/>
+      <c r="Z36" s="67"/>
+      <c r="AA36" s="67"/>
+    </row>
+    <row r="37" spans="1:27" ht="15" customHeight="1">
+      <c r="T37" s="67"/>
+      <c r="U37" s="67"/>
+      <c r="V37" s="67"/>
+      <c r="W37" s="67"/>
+      <c r="X37" s="67"/>
+      <c r="Y37" s="67"/>
+      <c r="Z37" s="67"/>
+      <c r="AA37" s="67"/>
+    </row>
+    <row r="38" spans="1:27" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35"/>
+      <c r="S38" s="35"/>
+      <c r="T38" s="67"/>
+      <c r="U38" s="67"/>
+      <c r="V38" s="67"/>
+      <c r="W38" s="67"/>
+      <c r="X38" s="67"/>
+      <c r="Y38" s="67"/>
+      <c r="Z38" s="67"/>
+      <c r="AA38" s="67"/>
+    </row>
+    <row r="39" spans="1:27" ht="15" customHeight="1">
+      <c r="T39" s="67"/>
+      <c r="U39" s="67"/>
+      <c r="V39" s="67"/>
+      <c r="W39" s="67"/>
+      <c r="X39" s="67"/>
+      <c r="Y39" s="67"/>
+      <c r="Z39" s="67"/>
+      <c r="AA39" s="67"/>
+    </row>
+    <row r="40" spans="1:27" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="35"/>
+      <c r="S40" s="35"/>
+      <c r="T40" s="67"/>
+      <c r="U40" s="67"/>
+      <c r="V40" s="67"/>
+      <c r="W40" s="67"/>
+      <c r="X40" s="67"/>
+      <c r="Y40" s="67"/>
+      <c r="Z40" s="67"/>
+      <c r="AA40" s="67"/>
+    </row>
+    <row r="41" spans="1:27" ht="15" customHeight="1">
+      <c r="T41" s="67"/>
+      <c r="U41" s="67"/>
+      <c r="V41" s="67"/>
+      <c r="W41" s="67"/>
+      <c r="X41" s="67"/>
+      <c r="Y41" s="67"/>
+      <c r="Z41" s="67"/>
+      <c r="AA41" s="67"/>
+    </row>
+    <row r="42" spans="1:27" ht="15" customHeight="1">
+      <c r="T42" s="67"/>
+      <c r="U42" s="67"/>
+      <c r="V42" s="67"/>
+      <c r="W42" s="67"/>
+      <c r="X42" s="67"/>
+      <c r="Y42" s="67"/>
+      <c r="Z42" s="67"/>
+      <c r="AA42" s="67"/>
+    </row>
+    <row r="43" spans="1:27" ht="16" customHeight="1"/>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="3">
     <mergeCell ref="K10:P10"/>
     <mergeCell ref="Q10:U10"/>
     <mergeCell ref="V10:AA10"/>
-    <mergeCell ref="V43:V44"/>
-    <mergeCell ref="W43:W44"/>
-    <mergeCell ref="X43:X44"/>
-    <mergeCell ref="Y43:Y44"/>
-    <mergeCell ref="Z43:Z44"/>
-    <mergeCell ref="AA43:AA44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
